--- a/i18n/pt.xlsx
+++ b/i18n/pt.xlsx
@@ -5,14 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A:$B</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="1389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="1391">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -4164,19 +4166,19 @@
     <t xml:space="preserve">QUANDO ATIVADO</t>
   </si>
   <si>
-    <t xml:space="preserve">WHEN PLAYED</t>
+    <t xml:space="preserve">WHEN PLAYED</t>
   </si>
   <si>
     <t xml:space="preserve">QUANDO JOGADO</t>
   </si>
   <si>
-    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
+    <t xml:space="preserve">ONCE BETWEEN TURNS</t>
   </si>
   <si>
     <t xml:space="preserve">UMA VEZ ENTRE TURNOS</t>
   </si>
   <si>
-    <t xml:space="preserve">ROUND END</t>
+    <t xml:space="preserve">ROUND END</t>
   </si>
   <si>
     <t xml:space="preserve">FIM DA RODADA</t>
@@ -4188,18 +4190,27 @@
     <t xml:space="preserve">FIM DO JOGO</t>
   </si>
   <si>
-    <t xml:space="preserve">of cards</t>
+    <t xml:space="preserve">of cards</t>
   </si>
   <si>
     <t xml:space="preserve">das cartas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Show bonus cards match symbols</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
+    <numFmt numFmtId="166" formatCode="@"/>
+    <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
   <fonts count="8">
     <font>
@@ -4305,7 +4316,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4368,6 +4379,22 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -4465,6 +4492,10 @@
     </indexedColors>
   </colors>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4691,7 +4722,7 @@
   </sheetPr>
   <dimension ref="A1:K447"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F274" activeCellId="0" sqref="F274"/>
@@ -15307,7 +15338,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15324,7 +15355,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1377</v>
       </c>
@@ -15332,7 +15363,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>1379</v>
       </c>
@@ -15340,7 +15371,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>1381</v>
       </c>
@@ -15348,7 +15379,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
         <v>1383</v>
       </c>
@@ -15356,7 +15387,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>1385</v>
       </c>
@@ -15364,7 +15395,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>1387</v>
       </c>
@@ -15386,6 +15417,53 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="17" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B2" s="19" t="b">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A:B"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <DataMashup xmlns="http://schemas.microsoft.com/DataMashup">AAAAABIDAABQSwMEFAACAAgAvWA9Ukevdu2iAAAA9QAAABIAHABDb25maWcvUGFja2FnZS54bWwgohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAhY8xDoIwGIWvQrrTlroQ8lMGRiUxITGuTanQAMXQYrmbg0fyCmIUdXN87/uG9+7XG2Rz3wUXNVo9mBRFmKJAGTlU2tQpmtwpjFHGYS9kK2oVLLKxyWyrFDXOnRNCvPfYb/Aw1oRRGpFjsStlo3qBPrL+L4faWCeMVIjD4TWGMxzHmNFlEpC1g0KbL2cLe9KfEvKpc9OouG3DcgtkjUDeF/gDUEsDBBQAAgAIAL1gPVIPyumrpAAAAOkAAAATABwAW0NvbnRlbnRfVHlwZXNdLnhtbCCiGAAooBQAAAAAAAAAAAAAAAAAAAAAAAAAAABtjksOwjAMRK8SeZ+6sEAINWUB3IALRMH9iOajxkXhbCw4ElcgbXeIpWfmeebzelfHZAfxoDH23inYFCUIcsbfetcqmLiRezjW1fUZKIocdVFBxxwOiNF0ZHUsfCCXncaPVnM+xxaDNnfdEm7LcofGOybHkucfUFdnavQ0sLikLK+1GQdxWnNzlQKmxLjI+JewP3kdwtAbzdnEJG2UdiFxGV5/AVBLAwQUAAIACAC9YD1SKIpHuA4AAAARAAAAEwAcAEZvcm11bGFzL1NlY3Rpb24xLm0gohgAKKAUAAAAAAAAAAAAAAAAAAAAAAAAAAAAK05NLsnMz1MIhtCG1gBQSwECLQAUAAIACAC9YD1SR6927aIAAAD1AAAAEgAAAAAAAAAAAAAAAAAAAAAAQ29uZmlnL1BhY2thZ2UueG1sUEsBAi0AFAACAAgAvWA9Ug/K6aukAAAA6QAAABMAAAAAAAAAAAAAAAAA7gAAAFtDb250ZW50X1R5cGVzXS54bWxQSwECLQAUAAIACAC9YD1SKIpHuA4AAAARAAAAEwAAAAAAAAAAAAAAAADfAQAARm9ybXVsYXMvU2VjdGlvbjEubVBLBQYAAAAAAwADAMIAAAA6AgAAAAAQAQAA77u/PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXRmLTgiPz48UGVybWlzc2lvbkxpc3QgeG1sbnM6eHNkPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYSIgeG1sbnM6eHNpPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYS1pbnN0YW5jZSI+PENhbkV2YWx1YXRlRnV0dXJlUGFja2FnZXM+ZmFsc2U8L0NhbkV2YWx1YXRlRnV0dXJlUGFja2FnZXM+PEZpcmV3YWxsRW5hYmxlZD50cnVlPC9GaXJld2FsbEVuYWJsZWQ+PC9QZXJtaXNzaW9uTGlzdD6XAQAAAAAAAHUBAADvu788P3htbCB2ZXJzaW9uPSIxLjAiIGVuY29kaW5nPSJ1dGYtOCI/PjxMb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGUgeG1sbnM6eHNkPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYSIgeG1sbnM6eHNpPSJodHRwOi8vd3d3LnczLm9yZy8yMDAxL1hNTFNjaGVtYS1pbnN0YW5jZSI+PEl0ZW1zPjxJdGVtPjxJdGVtTG9jYXRpb24+PEl0ZW1UeXBlPkFsbEZvcm11bGFzPC9JdGVtVHlwZT48SXRlbVBhdGggLz48L0l0ZW1Mb2NhdGlvbj48U3RhYmxlRW50cmllcz48RW50cnkgVHlwZT0iUmVsYXRpb25zaGlwcyIgVmFsdWU9InNBQUFBQUE9PSIgLz48L1N0YWJsZUVudHJpZXM+PC9JdGVtPjwvSXRlbXM+PC9Mb2NhbFBhY2thZ2VNZXRhZGF0YUZpbGU+FgAAAFBLBQYAAAAAAAAAAAAAAAAAAAAAAAAmAQAAAQAAANCMnd8BFdERjHoAwE/Cl+sBAAAAkAGad4F5v0Oto2SehDOMMgAAAAACAAAAAAAQZgAAAAEAACAAAAAEP60nZkjHKSMPUFrl6RBgs9bJRHQcaVArCYBkqAsaUQAAAAAOgAAAAAIAACAAAAAq4RTbnOO4LGlrfpXQNrJQb4o7mzUbMY2ZrcPAYIOuBlAAAABP+kQ1A+tqL3kqLpipn7Tzmihy9Qp4CJWAqu08NnBdhstgBW1Ch5dVzIV2fTEszATUR7VCUDT/1bIiX4rOwN7rGVk0A0VpkWVRyxl0ZzpaO0AAAADeOELD0uDYe0t6l5uhYj00IU51vYRvi/+ucS09N/OrOeb4gsq2snpv/PJ3fFm5b3rHDA755iR29chOQXcwdHvj</DataMashup>
 </file>

--- a/i18n/pt.xlsx
+++ b/i18n/pt.xlsx
@@ -5,16 +5,18 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Birds" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Bonuses" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="Other" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="Parameters" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Goals" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="Other" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="Parameters" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A:$B</definedName>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">Goals!$A:$F</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A:$B</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="ExternalData_2" vbProcedure="false">Bonuses!$A$1:$H$39</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2590" uniqueCount="1391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="1438">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -4155,6 +4157,147 @@
   </si>
   <si>
     <t xml:space="preserve">[automa] Rare Species Lister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explanatory Text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bird in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavity Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bowl Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ground Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platform Nest Bird with Egg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Cavity Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Bowl Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Ground Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Egg in Platform Nest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sets of Eggs in 3 Habitats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Bird</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food in Supply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Cards in Hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth over 4 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with No Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds in 1 Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filled Columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brown Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White &amp; No Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds with Tucked Cards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Cost of Played Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invertebrate in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruit + Seed in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodent + Fish in Food Cost of Your Birds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No Goal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beak Pointing Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cubes on "Play a Bird"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pairs of Matching Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nest Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food Symbols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not on Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On Edge of Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokens in Any One Horizontal Row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal Rows with at Least One of Your Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fewest Tokens on Bonus Spaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Grassland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Wetland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Duet Tokens</t>
   </si>
   <si>
     <t xml:space="preserve">Translated</t>
@@ -4316,7 +4459,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4381,19 +4524,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4495,6 +4634,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -4723,9 +4866,11 @@
   <dimension ref="A1:K447"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F274" activeCellId="0" sqref="F274"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14224,14 +14369,16 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H19" activeCellId="0" sqref="H19"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="22.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="27.29"/>
@@ -15335,10 +15482,714 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="51.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>1199</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="n">
+        <v>2010</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="n">
+        <v>2008</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="n">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="n">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="n">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2003</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
+        <v>2004</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
+        <v>2006</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>2005</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
+        <v>2009</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="3"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
+        <v>2007</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>2031</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D28" s="3"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>2030</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>2033</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>2032</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>2026</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>2027</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>2029</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>2028</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>2043</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>2040</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>2035</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>2041</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>2042</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>2044</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>2036</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>2034</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>2037</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>2038</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>2039</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>2045</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A:F"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;KffffffStrona &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15352,55 +16203,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1376</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1377</v>
+        <v>1424</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1378</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1379</v>
+        <v>1426</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1380</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1381</v>
+        <v>1428</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1382</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1383</v>
+        <v>1430</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1384</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1385</v>
+        <v>1432</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1386</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1387</v>
+        <v>1434</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1388</v>
+        <v>1435</v>
       </c>
     </row>
   </sheetData>
@@ -15417,36 +16268,38 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.95"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="16" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="B1" s="18" t="s">
-        <v>1389</v>
+      <c r="B1" s="17" t="s">
+        <v>1436</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B2" s="19" t="b">
+      <c r="A2" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B2" s="18" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>

--- a/i18n/pt.xlsx
+++ b/i18n/pt.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2688" uniqueCount="1438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="1514">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -3091,6 +3091,9 @@
     <t xml:space="preserve">asia</t>
   </si>
   <si>
+    <t xml:space="preserve">Bote 2 [egg] em cada outra ave desta coluna.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Asian Koel</t>
   </si>
   <si>
@@ -3103,18 +3106,27 @@
     <t xml:space="preserve">Cyanistes cyanus</t>
   </si>
   <si>
+    <t xml:space="preserve">Ganhe 1 [invertebrate], [seed] ou [fruit] do estoque.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baya Weaver</t>
   </si>
   <si>
     <t xml:space="preserve">Ploceus philippinus</t>
   </si>
   <si>
+    <t xml:space="preserve">Enfie até 3 [card] de sua mão embaixo desta ave. Se você enfiar pelo menos 1 [card], bote 1 [egg] nesta ave.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bearded Reedling</t>
   </si>
   <si>
     <t xml:space="preserve">Panurus biarmicus</t>
   </si>
   <si>
+    <t xml:space="preserve">Para cada outra ave nesta coluna com um ovo sobre ela, bote 1 [egg] nesta ave.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Black Drongo</t>
   </si>
   <si>
@@ -3145,6 +3157,9 @@
     <t xml:space="preserve">Haliastur indus</t>
   </si>
   <si>
+    <t xml:space="preserve">Escolha 3 [die] quaisquer. Role-os até 3 vezes. Em cada rolagem, se você rolar pelo menos 1 [fish] ou [rodent], ganhe 1 e estoque-o aqui. Senão, pare e devolva toda a comida estocada aqui neste turno.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brambling</t>
   </si>
   <si>
@@ -3157,6 +3172,9 @@
     <t xml:space="preserve">Lanius cristatus</t>
   </si>
   <si>
+    <t xml:space="preserve">Todos os jogadores podem estocar 1 [invertebrate]de seus estoques pessoais em uma ave em seus [grassland].</t>
+  </si>
+  <si>
     <t xml:space="preserve">Common Green Magpie</t>
   </si>
   <si>
@@ -3187,6 +3205,9 @@
     <t xml:space="preserve">Orthotomus sutorius</t>
   </si>
   <si>
+    <t xml:space="preserve">Encontre um grupo contínuo de aves com o mesmo tipo de ninho em seu tabuleiro. Bote 1 [egg] em cada uma delas. Ninhos [star] contam como qualquer tipo de ninho.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Common Teal</t>
   </si>
   <si>
@@ -3235,6 +3256,9 @@
     <t xml:space="preserve">Bubo bubo</t>
   </si>
   <si>
+    <t xml:space="preserve">Até 3 vezes, compre 1 [card] do baralho. Quando você parar, se a soma das envergaduras das aves for menor que 110 cm, enfie-as embaixo desta ave. Senão, descarte-as.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eurasian Hoopoe</t>
   </si>
   <si>
@@ -3325,6 +3349,9 @@
     <t xml:space="preserve">Leptoptilos dubius</t>
   </si>
   <si>
+    <t xml:space="preserve">Copie uma carta bônus do jogador à sua esquerda, como se ela fosse sua (pontue-a com base em suas próprias aves).</t>
+  </si>
+  <si>
     <t xml:space="preserve">Green Bee-Eater</t>
   </si>
   <si>
@@ -3379,6 +3406,9 @@
     <t xml:space="preserve">Egretta garzetta</t>
   </si>
   <si>
+    <t xml:space="preserve">Compre 1 [card] do baralho e adicione-a à sua mão. Todos os outros jogadores compram 1 [card] do baralho e a mantém se ela puder viver em [wetland].</t>
+  </si>
+  <si>
     <t xml:space="preserve">Little Grebe</t>
   </si>
   <si>
@@ -3403,6 +3433,9 @@
     <t xml:space="preserve">Cinnyris jugularis</t>
   </si>
   <si>
+    <t xml:space="preserve">Cada jogador pode rolar 1 [die] qualquer e ganhar essa comida do estoque. </t>
+  </si>
+  <si>
     <t xml:space="preserve">Oriental Bay-Owl</t>
   </si>
   <si>
@@ -3445,6 +3478,9 @@
     <t xml:space="preserve">Gallus gallus</t>
   </si>
   <si>
+    <t xml:space="preserve">Conte os em todas [egg] as suas aves. Se o total for menos de 6 [egg], bote 1 [egg] nesta ave.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Red-Crowned Crane</t>
   </si>
   <si>
@@ -3469,12 +3505,18 @@
     <t xml:space="preserve">Cerorhinca monocerata</t>
   </si>
   <si>
+    <t xml:space="preserve">Role 2 quaisquer [die]. Se você rolar pelo menos 1 [fish], ganhe 1 [fish] e estoque-o aqui. Todos os jogadores podem descartar 1 [card] de suas mãos para ganhar 1 [fish] do estoque.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rock Pigeon</t>
   </si>
   <si>
     <t xml:space="preserve">Columba livia</t>
   </si>
   <si>
+    <t xml:space="preserve">Todos os jogadores botam 1 [egg]. Você bota 1 adicional.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rook</t>
   </si>
   <si>
@@ -3583,6 +3625,9 @@
     <t xml:space="preserve">Chrysococcyx xanthorhynchus</t>
   </si>
   <si>
+    <t xml:space="preserve">Quando outro jogador realizar a ação de “botar ovos”, bote 1 [egg] em outra ave de envergadura &lt;30cm. Você pode ultrapassar o limite de ovos em até 2 ao utilizar este poder.</t>
+  </si>
+  <si>
     <t xml:space="preserve">White-Browed Tit-Warbler</t>
   </si>
   <si>
@@ -3601,6 +3646,9 @@
     <t xml:space="preserve">Oxyura leucocephala</t>
   </si>
   <si>
+    <t xml:space="preserve">Compre 3 novas cartas bônus e mantenha 1.</t>
+  </si>
+  <si>
     <t xml:space="preserve">White-Throated Kingfisher</t>
   </si>
   <si>
@@ -3619,6 +3667,9 @@
     <t xml:space="preserve">Ixobrychus sinensis</t>
   </si>
   <si>
+    <t xml:space="preserve">Compre a [card] no espaço do meio da bandeja de aves.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zebra Dove</t>
   </si>
   <si>
@@ -4072,6 +4123,9 @@
     <t xml:space="preserve">3 aves: 3[point]; 4 aves: 5[point]; 5 aves: 8[point]</t>
   </si>
   <si>
+    <t xml:space="preserve">Estas cartas bônus garantem, cada uma, pontos por sequências longas o bastante, no habitat correspondente, de aves consecutivas com envergaduras em ordem crescente ou decrescente. A sequência não precisa consistir em todas as aves do habitat, e ela não precisa começar ou terminar nas extremidades do habitat. Uma sequência pode incluir duas ou mais aves com a mesma envergadura.&lt;br&gt;Como mencionado anteriormente, as envergaduras de aves que não voam são curingas: Para fins dessas cartas bônus, você pode atribuir qualquer envergadura para uma ave que não voa.&lt;br&gt;Por exemplo, se as envergaduras das primeiras 3 aves em seu pântano estiverem em ordem crescente, mas a quarta ave em seu pântano tiver uma envergadura menor do que a terceira ave de lá, o comprimento da sua sequência é 3, nesse caso, a carta bônus Analista de Dados dos Pântanos valeria 3 pontos.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grassland Data Analyst</t>
   </si>
   <si>
@@ -4096,6 +4150,9 @@
     <t xml:space="preserve">1 grupo = [bowl] [cavity] [ground] [platform]; 1 grupo: 3[point]; 2+ grupo: 8[point]</t>
   </si>
   <si>
+    <t xml:space="preserve">Esta carta busca por conjuntos dos quatro tipos de ninho entre todas as suas aves. A ordem e localização dos ninhos não importa; importa apenas que cada grupo inclua todos os quatro tipos de ninho.&lt;br&gt;Cada ninho estrela pode ser o substituto de um ninho de qualquer tipo em um grupo. Por exemplo:&lt;br&gt;&lt;ul&gt;&lt;li&gt;um ninho de cavidade, um ninho de plataforma, e dois ninhos estrela formam um grupo completo.&lt;/li&gt;&lt;li&gt;dois ninhos de cavidade, dois ninhos de plataforma, um ninho de tigela, um ninho de solo, e dois ninhos estrela formam dois grupos completos.&lt;/li&gt;&lt;li&gt;dois ninhos de tigela, dois ninhos de cavidade, dois ninhos de plataforma, um ninho de solo, e um ninho estrela formam um grupo, não dois, pois cada ninho estrela só pode fazer parte de um grupo.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Site Selection Expert</t>
   </si>
   <si>
@@ -4111,6 +4168,9 @@
     <t xml:space="preserve">2 ninhos iguais em uma coluna: 1[point]; 3 ninhos iguais em uma coluna: 3[point]</t>
   </si>
   <si>
+    <t xml:space="preserve">Esta carta bônus fornece pontos para cada coluna que contenha mais de um ninho do mesmo tipo. Uma coluna vale 0, 1, ou 3 pontos, dependendo de ter 0, 2, ou 3 ninhos iguais nela, respectivamente. Diferentes colunas podem (mas não precisam) pontuar usando diferentes tipos de ninho.&lt;br&gt;Ninhos estrela são curingas. Um ninho estrela individual conta apenas uma vez; ele não pode ser usado como 2 tipos diferentes de ninho na mesma coluna.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Wetland Data Analyst</t>
   </si>
   <si>
@@ -4141,6 +4201,15 @@
     <t xml:space="preserve">Pellet Dissector</t>
   </si>
   <si>
+    <t xml:space="preserve">Dissecador de Pelotas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fichas de [fish] e [rodent] estocadas em aves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 a 3 comidas estocadas: 3[point]; 4+ comidas estocadas: 6[point]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Small Clutch Specialist</t>
   </si>
   <si>
@@ -4213,91 +4282,288 @@
     <t xml:space="preserve">Food in Supply</t>
   </si>
   <si>
+    <t xml:space="preserve">Comida no estoque pessoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[wild] no estoque pessoal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O número de fichas de comida em seu estoque pessoal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Birds Cards in Hand</t>
   </si>
   <si>
+    <t xml:space="preserve">Cartas de Ave na mão</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O número de cartas de ave na sua mão</t>
+  </si>
+  <si>
     <t xml:space="preserve">Birds Worth over 4 Points</t>
   </si>
   <si>
+    <t xml:space="preserve">Aves que valem mais de 4 pontos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] que valem &gt;4[point]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O número de aves que você possui com um valor impresso de mais de 4 pontos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Birds with No Eggs</t>
   </si>
   <si>
+    <t xml:space="preserve">Aves sem nenhum ovo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O número de aves que você possui que não tenham nenhum ovo sobre elas quando este objetivo for pontuado</t>
+  </si>
+  <si>
     <t xml:space="preserve">Birds in 1 Row</t>
   </si>
   <si>
+    <t xml:space="preserve">Aves em uma linha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[bird] em uma linha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O número de aves que você possui no habitat com mais aves</t>
+  </si>
+  <si>
     <t xml:space="preserve">Filled Columns</t>
   </si>
   <si>
+    <t xml:space="preserve">Colunas preenchidas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O número de colunas onde todos os três espaços estejam preenchidos</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brown Powers</t>
   </si>
   <si>
+    <t xml:space="preserve">Poderes marrons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poderes marrons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O número de aves que você possui que tenham poderes marrons "quando ativado"</t>
+  </si>
+  <si>
     <t xml:space="preserve">White &amp; No Powers</t>
   </si>
   <si>
+    <t xml:space="preserve">Poderes brancos &amp; sem poderes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O número de aves que você possui que tenham um poder "quando jogado", ou não tenham poder</t>
+  </si>
+  <si>
     <t xml:space="preserve">Birds with Tucked Cards</t>
   </si>
   <si>
+    <t xml:space="preserve">[flocking] com cartas embaixo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O número de aves que você possui que tenham pelo menos 1 carta enfiada embaixo delas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Food Cost of Played Birds</t>
   </si>
   <si>
+    <t xml:space="preserve">Custo em comida das aves jogadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conte o custo em comida de suas aves, lembrando de contar apenas 1 comida para aves que tenham uma escolha em seus custos de comida</t>
+  </si>
+  <si>
     <t xml:space="preserve">Invertebrate in Food Cost of Your Birds</t>
   </si>
   <si>
+    <t xml:space="preserve">Invertebrados no custo em comida das suas aves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[invertebrate] no custo em comida das suas aves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conte a quantidade de símbolos da comida dessa peça de objetivo que aparecem nos custos em comida das suas cartas de ave. Por exemplo, para o objetivo “[fruit] + [seed] no custo em comida das suas aves”, olhe os custos em comida no canto superior esquerdo das aves que você jogou em seu tabuleiro, e conte todos os [fruit] mais todos os [seed]. Se uma ave tiver um custo “[fruit]/[seed]” (você paga um OU um para jogar a ave), ele conta como apenas uma comida para este objetivo de final de rodada. Não conte [wild] ou [nectar].</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fruit + Seed in Food Cost of Your Birds</t>
   </si>
   <si>
+    <t xml:space="preserve">Frutas + sementes no custo em comida das suas aves</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[fruit] + [seed] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">no custo em comida das suas aves</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">Rodent + Fish in Food Cost of Your Birds</t>
   </si>
   <si>
+    <t xml:space="preserve">Roedores + peixes no custo em comida das suas aves</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">[rodent] + [fish] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="238"/>
+      </rPr>
+      <t xml:space="preserve">no custo em comida das suas aves</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">No Goal</t>
   </si>
   <si>
+    <t xml:space="preserve">Sem objetivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sem objetivo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não pontue um objetivo no final desta rodada. Mantenha seu cubo. Todas as rodadas seguintes terão 1 cubo a mais do que normalmente teria.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beak Pointing Left</t>
   </si>
   <si>
+    <t xml:space="preserve">Bico para a esquerda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[beak-left] para a esquerda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estes objetivos contam cartas que mostram uma ave cujo bico está apontando na direção indicada. Aves cujos bicos estão apontando diretamente para frente (ou para cima) não contam para nenhum destes objetivos.&lt;br&gt;Esses objetivos foram adicionados para dar aos jogadores outra razão para olhar atentamente para a arte. Apesar de termos avaliado todas as cartas e concluído que a direção do bico não seria muito difícil de determinar, se sua mesa tiver problemas com isso, fique à vontade para deixar essa peça fora do jogo. Existem algumas aves que precisam de esclarecimentos:&lt;br&gt;&lt;ul&gt;&lt;li&gt;O Wrybill, apesar de estar olhando para frente, tem um bico que está apontando para o lado esquerdo da carta.&lt;/li&gt;&lt;li&gt;A carta Common Loon (do jogo base) e a carta Little Grebe (da Expansão Asia) tem 1 ave apontando para cada direção, portanto ela se qualifica para ambos os objetivos.&lt;/li&gt;&lt;li&gt;A carta Great Crested Grebe (da Expansão Europa) tem 2 aves apontando para a mesma direção: ela conta como uma única carta que tem uma ave que está apontando para a esquerda.&lt;/li&gt;&lt;/ul&gt;&lt;br&gt;Aqui está uma lista com as aves que não estão apontando para a direita e nem para a esquerda.&lt;br&gt;&lt;b&gt;Jogo Base&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Barn Owl&lt;/li&gt;&lt;li&gt;Barred Owl&lt;/li&gt;&lt;li&gt;Burrowing Owl&lt;/li&gt;&lt;li&gt;California Condor&lt;/li&gt;&lt;li&gt;Eastern Screech-Owl&lt;/li&gt;&lt;li&gt;Great Horned Owl&lt;/li&gt;&lt;li&gt;Horned Lark&lt;/li&gt;&lt;li&gt;Spotted Owl&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Europa&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Little Owl&lt;/li&gt;&lt;li&gt;Snowy Owl&lt;/li&gt;&lt;li&gt;Short-Toed Treecreeper&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Oceania&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Australian Owlet-Nightjar&lt;/li&gt;&lt;li&gt;Kākāpō&lt;/li&gt;&lt;li&gt;Rufous Owl&lt;/li&gt;&lt;/ul&gt;&lt;b&gt;Asia&lt;/b&gt;&lt;ul&gt;&lt;li&gt;Bearded Reedling&lt;/li&gt;&lt;li&gt;Eurasian Eagle-Owl&lt;/li&gt;&lt;li&gt;Forest Owlet&lt;/li&gt;&lt;li&gt;Oriental Bay-Owl&lt;/li&gt;&lt;li&gt;Spoon-Billed Sandpiper&lt;/li&gt;&lt;li&gt;Sri Lanka Frogmouth&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">Beak Pointing Right</t>
   </si>
   <si>
+    <t xml:space="preserve">Bico para a direita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[beak-right] bico para a direita</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cubes on "Play a Bird"</t>
   </si>
   <si>
+    <t xml:space="preserve">Cubos em “Jogar Ave”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[cube] cubos em “jogar ave”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conte a quantidade de cubos que você colocou em “Jogar Ave” nesta rodada. Note que este objetivo requer que você mantenha os cubos nas linhas onde você os jogou.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Birds Worth Less than or Equal to 3 Points</t>
   </si>
   <si>
+    <t xml:space="preserve">[bird] que valem ≤3[point]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pairs of Matching Symbols</t>
   </si>
   <si>
     <t xml:space="preserve">Nest Symbols</t>
   </si>
   <si>
+    <t xml:space="preserve">[duet-token] EM [bowl][cavity][ground][platform]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Food Symbols</t>
   </si>
   <si>
+    <t xml:space="preserve">[duet-token] EM [fish][fruit][rodent][seed][invertebrate]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Not on Edge of Map</t>
   </si>
   <si>
+    <t xml:space="preserve">[duet-token] QUE NÃO ESTEJAM NA BORDA DO MAPA</t>
+  </si>
+  <si>
     <t xml:space="preserve">On Edge of Map</t>
   </si>
   <si>
+    <t xml:space="preserve">[duet-token] QUE ESTEJAM NA BORDA DO MAPA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tokens in Any One Horizontal Row</t>
   </si>
   <si>
+    <t xml:space="preserve">[duet-token] EM UMA LINHA HORIZONTAL QUALQUER</t>
+  </si>
+  <si>
     <t xml:space="preserve">Horizontal Rows with at Least One of Your Tokens</t>
   </si>
   <si>
     <t xml:space="preserve">Fewest Tokens on Bonus Spaces</t>
   </si>
   <si>
+    <t xml:space="preserve">MENOS [duet-token] EM ESPAÇOS DE BÔNUS</t>
+  </si>
+  <si>
     <t xml:space="preserve">In Forest</t>
   </si>
   <si>
+    <t xml:space="preserve">[duet-token] EM [forest]</t>
+  </si>
+  <si>
     <t xml:space="preserve">In Grassland</t>
   </si>
   <si>
+    <t xml:space="preserve">[duet-token] EM [grassland]</t>
+  </si>
+  <si>
     <t xml:space="preserve">In Wetland</t>
   </si>
   <si>
+    <t xml:space="preserve">[duet-token] EM [wetland]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Total Duet Tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL DE [duet-token] NO MAPA</t>
   </si>
   <si>
     <t xml:space="preserve">Translated</t>
@@ -4355,7 +4621,7 @@
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4408,6 +4674,13 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -4866,11 +5139,11 @@
   <dimension ref="A1:K447"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C282" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A282" activeCellId="0" sqref="A282"/>
+      <selection pane="bottomRight" activeCell="G275" activeCellId="1" sqref="F33 G275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12596,6 +12869,9 @@
       <c r="D358" s="5" t="s">
         <v>1019</v>
       </c>
+      <c r="F358" s="1" t="s">
+        <v>1020</v>
+      </c>
       <c r="H358" s="8"/>
       <c r="I358" s="8" t="s">
         <v>20</v>
@@ -12610,10 +12886,10 @@
         <v>359</v>
       </c>
       <c r="B359" s="5" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>1019</v>
@@ -12630,13 +12906,16 @@
         <v>360</v>
       </c>
       <c r="B360" s="5" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="D360" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F360" s="1" t="s">
+        <v>1025</v>
       </c>
       <c r="H360" s="8"/>
       <c r="I360" s="8"/>
@@ -12650,13 +12929,16 @@
         <v>361</v>
       </c>
       <c r="B361" s="5" t="s">
-        <v>1024</v>
+        <v>1026</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>1025</v>
+        <v>1027</v>
       </c>
       <c r="D361" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F361" s="1" t="s">
+        <v>1028</v>
       </c>
       <c r="H361" s="8"/>
       <c r="I361" s="8"/>
@@ -12668,13 +12950,16 @@
         <v>362</v>
       </c>
       <c r="B362" s="5" t="s">
-        <v>1026</v>
+        <v>1029</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>1027</v>
+        <v>1030</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F362" s="1" t="s">
+        <v>1031</v>
       </c>
       <c r="H362" s="8"/>
       <c r="I362" s="8"/>
@@ -12686,10 +12971,10 @@
         <v>363</v>
       </c>
       <c r="B363" s="5" t="s">
-        <v>1028</v>
+        <v>1032</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="D363" s="5" t="s">
         <v>1019</v>
@@ -12706,10 +12991,10 @@
         <v>364</v>
       </c>
       <c r="B364" s="5" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
       <c r="D364" s="5" t="s">
         <v>1019</v>
@@ -12726,10 +13011,10 @@
         <v>365</v>
       </c>
       <c r="B365" s="5" t="s">
-        <v>1032</v>
+        <v>1036</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>1033</v>
+        <v>1037</v>
       </c>
       <c r="D365" s="5" t="s">
         <v>1019</v>
@@ -12748,10 +13033,10 @@
         <v>366</v>
       </c>
       <c r="B366" s="5" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>1019</v>
@@ -12768,13 +13053,16 @@
         <v>367</v>
       </c>
       <c r="B367" s="5" t="s">
-        <v>1036</v>
+        <v>1040</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>1037</v>
+        <v>1041</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>1042</v>
       </c>
       <c r="H367" s="8"/>
       <c r="I367" s="8"/>
@@ -12786,10 +13074,10 @@
         <v>368</v>
       </c>
       <c r="B368" s="5" t="s">
-        <v>1038</v>
+        <v>1043</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>1039</v>
+        <v>1044</v>
       </c>
       <c r="D368" s="5" t="s">
         <v>1019</v>
@@ -12804,13 +13092,16 @@
         <v>369</v>
       </c>
       <c r="B369" s="5" t="s">
-        <v>1040</v>
+        <v>1045</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F369" s="1" t="s">
+        <v>1047</v>
       </c>
       <c r="H369" s="8"/>
       <c r="I369" s="8"/>
@@ -12824,10 +13115,10 @@
         <v>370</v>
       </c>
       <c r="B370" s="5" t="s">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="D370" s="5" t="s">
         <v>1019</v>
@@ -12844,10 +13135,10 @@
         <v>371</v>
       </c>
       <c r="B371" s="5" t="s">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="D371" s="5" t="s">
         <v>1019</v>
@@ -12862,10 +13153,10 @@
         <v>372</v>
       </c>
       <c r="B372" s="5" t="s">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>1019</v>
@@ -12880,10 +13171,10 @@
         <v>373</v>
       </c>
       <c r="B373" s="5" t="s">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>1019</v>
@@ -12898,13 +13189,16 @@
         <v>374</v>
       </c>
       <c r="B374" s="5" t="s">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F374" s="1" t="s">
+        <v>1058</v>
       </c>
       <c r="H374" s="8"/>
       <c r="I374" s="8"/>
@@ -12916,10 +13210,10 @@
         <v>375</v>
       </c>
       <c r="B375" s="5" t="s">
-        <v>1052</v>
+        <v>1059</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>1019</v>
@@ -12936,10 +13230,10 @@
         <v>376</v>
       </c>
       <c r="B376" s="5" t="s">
-        <v>1054</v>
+        <v>1061</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>1055</v>
+        <v>1062</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>1019</v>
@@ -12954,10 +13248,10 @@
         <v>377</v>
       </c>
       <c r="B377" s="5" t="s">
-        <v>1056</v>
+        <v>1063</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>1057</v>
+        <v>1064</v>
       </c>
       <c r="D377" s="5" t="s">
         <v>1019</v>
@@ -12974,10 +13268,10 @@
         <v>378</v>
       </c>
       <c r="B378" s="5" t="s">
-        <v>1058</v>
+        <v>1065</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>1059</v>
+        <v>1066</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>1019</v>
@@ -12994,10 +13288,10 @@
         <v>379</v>
       </c>
       <c r="B379" s="5" t="s">
-        <v>1060</v>
+        <v>1067</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>1061</v>
+        <v>1068</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>1019</v>
@@ -13014,10 +13308,10 @@
         <v>380</v>
       </c>
       <c r="B380" s="5" t="s">
-        <v>1062</v>
+        <v>1069</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>1063</v>
+        <v>1070</v>
       </c>
       <c r="D380" s="5" t="s">
         <v>1019</v>
@@ -13034,10 +13328,10 @@
         <v>381</v>
       </c>
       <c r="B381" s="5" t="s">
-        <v>1064</v>
+        <v>1071</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="D381" s="5" t="s">
         <v>1019</v>
@@ -13054,13 +13348,16 @@
         <v>382</v>
       </c>
       <c r="B382" s="5" t="s">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="D382" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>1075</v>
       </c>
       <c r="H382" s="8"/>
       <c r="I382" s="8" t="s">
@@ -13074,10 +13371,10 @@
         <v>383</v>
       </c>
       <c r="B383" s="5" t="s">
-        <v>1068</v>
+        <v>1076</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>1069</v>
+        <v>1077</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>1019</v>
@@ -13094,10 +13391,10 @@
         <v>384</v>
       </c>
       <c r="B384" s="5" t="s">
-        <v>1070</v>
+        <v>1078</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>1071</v>
+        <v>1079</v>
       </c>
       <c r="D384" s="5" t="s">
         <v>1019</v>
@@ -13114,10 +13411,10 @@
         <v>385</v>
       </c>
       <c r="B385" s="5" t="s">
-        <v>1072</v>
+        <v>1080</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>1073</v>
+        <v>1081</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>1019</v>
@@ -13134,10 +13431,10 @@
         <v>386</v>
       </c>
       <c r="B386" s="5" t="s">
-        <v>1074</v>
+        <v>1082</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>1075</v>
+        <v>1083</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>1019</v>
@@ -13154,10 +13451,10 @@
         <v>387</v>
       </c>
       <c r="B387" s="5" t="s">
-        <v>1076</v>
+        <v>1084</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>1077</v>
+        <v>1085</v>
       </c>
       <c r="D387" s="5" t="s">
         <v>1019</v>
@@ -13174,10 +13471,10 @@
         <v>388</v>
       </c>
       <c r="B388" s="5" t="s">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="D388" s="5" t="s">
         <v>1019</v>
@@ -13194,10 +13491,10 @@
         <v>389</v>
       </c>
       <c r="B389" s="5" t="s">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="D389" s="5" t="s">
         <v>1019</v>
@@ -13214,10 +13511,10 @@
         <v>390</v>
       </c>
       <c r="B390" s="5" t="s">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="D390" s="5" t="s">
         <v>1019</v>
@@ -13232,10 +13529,10 @@
         <v>391</v>
       </c>
       <c r="B391" s="5" t="s">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="D391" s="5" t="s">
         <v>1019</v>
@@ -13250,10 +13547,10 @@
         <v>392</v>
       </c>
       <c r="B392" s="5" t="s">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="D392" s="5" t="s">
         <v>1019</v>
@@ -13272,10 +13569,10 @@
         <v>393</v>
       </c>
       <c r="B393" s="5" t="s">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="D393" s="5" t="s">
         <v>1019</v>
@@ -13290,10 +13587,10 @@
         <v>394</v>
       </c>
       <c r="B394" s="5" t="s">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>1019</v>
@@ -13310,10 +13607,10 @@
         <v>395</v>
       </c>
       <c r="B395" s="5" t="s">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="D395" s="5" t="s">
         <v>1019</v>
@@ -13330,10 +13627,10 @@
         <v>396</v>
       </c>
       <c r="B396" s="5" t="s">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="D396" s="5" t="s">
         <v>1019</v>
@@ -13348,13 +13645,16 @@
         <v>397</v>
       </c>
       <c r="B397" s="5" t="s">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="D397" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F397" s="1" t="s">
+        <v>1106</v>
       </c>
       <c r="H397" s="8"/>
       <c r="I397" s="8"/>
@@ -13366,10 +13666,10 @@
         <v>398</v>
       </c>
       <c r="B398" s="5" t="s">
-        <v>1098</v>
+        <v>1107</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>1099</v>
+        <v>1108</v>
       </c>
       <c r="D398" s="5" t="s">
         <v>1019</v>
@@ -13386,10 +13686,10 @@
         <v>399</v>
       </c>
       <c r="B399" s="5" t="s">
-        <v>1100</v>
+        <v>1109</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>1101</v>
+        <v>1110</v>
       </c>
       <c r="D399" s="5" t="s">
         <v>1019</v>
@@ -13406,10 +13706,10 @@
         <v>400</v>
       </c>
       <c r="B400" s="5" t="s">
-        <v>1102</v>
+        <v>1111</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>1103</v>
+        <v>1112</v>
       </c>
       <c r="D400" s="5" t="s">
         <v>1019</v>
@@ -13426,10 +13726,10 @@
         <v>401</v>
       </c>
       <c r="B401" s="5" t="s">
-        <v>1104</v>
+        <v>1113</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>1105</v>
+        <v>1114</v>
       </c>
       <c r="D401" s="5" t="s">
         <v>1019</v>
@@ -13444,10 +13744,10 @@
         <v>402</v>
       </c>
       <c r="B402" s="5" t="s">
-        <v>1106</v>
+        <v>1115</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>1107</v>
+        <v>1116</v>
       </c>
       <c r="D402" s="5" t="s">
         <v>1019</v>
@@ -13464,10 +13764,10 @@
         <v>403</v>
       </c>
       <c r="B403" s="5" t="s">
-        <v>1108</v>
+        <v>1117</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>1109</v>
+        <v>1118</v>
       </c>
       <c r="D403" s="5" t="s">
         <v>1019</v>
@@ -13484,10 +13784,10 @@
         <v>404</v>
       </c>
       <c r="B404" s="5" t="s">
-        <v>1110</v>
+        <v>1119</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>1111</v>
+        <v>1120</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>1019</v>
@@ -13504,10 +13804,10 @@
         <v>405</v>
       </c>
       <c r="B405" s="5" t="s">
-        <v>1112</v>
+        <v>1121</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>1113</v>
+        <v>1122</v>
       </c>
       <c r="D405" s="5" t="s">
         <v>1019</v>
@@ -13524,13 +13824,16 @@
         <v>406</v>
       </c>
       <c r="B406" s="5" t="s">
-        <v>1114</v>
+        <v>1123</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>1115</v>
+        <v>1124</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F406" s="1" t="s">
+        <v>1125</v>
       </c>
       <c r="H406" s="8"/>
       <c r="I406" s="8"/>
@@ -13542,10 +13845,10 @@
         <v>407</v>
       </c>
       <c r="B407" s="5" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>1019</v>
@@ -13560,10 +13863,10 @@
         <v>408</v>
       </c>
       <c r="B408" s="5" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="D408" s="5" t="s">
         <v>1019</v>
@@ -13578,10 +13881,10 @@
         <v>409</v>
       </c>
       <c r="B409" s="5" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
       <c r="D409" s="5" t="s">
         <v>1019</v>
@@ -13596,13 +13899,16 @@
         <v>410</v>
       </c>
       <c r="B410" s="5" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>1123</v>
+        <v>1133</v>
       </c>
       <c r="D410" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F410" s="1" t="s">
+        <v>1134</v>
       </c>
       <c r="H410" s="8" t="s">
         <v>20</v>
@@ -13618,10 +13924,10 @@
         <v>411</v>
       </c>
       <c r="B411" s="5" t="s">
-        <v>1124</v>
+        <v>1135</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>1125</v>
+        <v>1136</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>1019</v>
@@ -13638,10 +13944,10 @@
         <v>412</v>
       </c>
       <c r="B412" s="5" t="s">
-        <v>1126</v>
+        <v>1137</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>1127</v>
+        <v>1138</v>
       </c>
       <c r="D412" s="5" t="s">
         <v>1019</v>
@@ -13658,10 +13964,10 @@
         <v>413</v>
       </c>
       <c r="B413" s="5" t="s">
-        <v>1128</v>
+        <v>1139</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>1129</v>
+        <v>1140</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>1019</v>
@@ -13678,10 +13984,10 @@
         <v>414</v>
       </c>
       <c r="B414" s="5" t="s">
-        <v>1130</v>
+        <v>1141</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>1131</v>
+        <v>1142</v>
       </c>
       <c r="D414" s="5" t="s">
         <v>1019</v>
@@ -13698,10 +14004,10 @@
         <v>415</v>
       </c>
       <c r="B415" s="5" t="s">
-        <v>1132</v>
+        <v>1143</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>1133</v>
+        <v>1144</v>
       </c>
       <c r="D415" s="5" t="s">
         <v>1019</v>
@@ -13718,10 +14024,10 @@
         <v>416</v>
       </c>
       <c r="B416" s="5" t="s">
-        <v>1134</v>
+        <v>1145</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>1135</v>
+        <v>1146</v>
       </c>
       <c r="D416" s="5" t="s">
         <v>1019</v>
@@ -13738,13 +14044,16 @@
         <v>417</v>
       </c>
       <c r="B417" s="5" t="s">
-        <v>1136</v>
+        <v>1147</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>1137</v>
+        <v>1148</v>
       </c>
       <c r="D417" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F417" s="1" t="s">
+        <v>1149</v>
       </c>
       <c r="H417" s="8"/>
       <c r="I417" s="8" t="s">
@@ -13760,10 +14069,10 @@
         <v>418</v>
       </c>
       <c r="B418" s="5" t="s">
-        <v>1138</v>
+        <v>1150</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>1139</v>
+        <v>1151</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>1019</v>
@@ -13782,10 +14091,10 @@
         <v>419</v>
       </c>
       <c r="B419" s="5" t="s">
-        <v>1140</v>
+        <v>1152</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>1141</v>
+        <v>1153</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>1019</v>
@@ -13804,10 +14113,10 @@
         <v>420</v>
       </c>
       <c r="B420" s="5" t="s">
-        <v>1142</v>
+        <v>1154</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>1143</v>
+        <v>1155</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>1019</v>
@@ -13826,13 +14135,16 @@
         <v>421</v>
       </c>
       <c r="B421" s="5" t="s">
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>1145</v>
+        <v>1157</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>1158</v>
       </c>
       <c r="H421" s="8"/>
       <c r="I421" s="8"/>
@@ -13844,13 +14156,16 @@
         <v>422</v>
       </c>
       <c r="B422" s="5" t="s">
-        <v>1146</v>
+        <v>1159</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>1147</v>
+        <v>1160</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F422" s="1" t="s">
+        <v>1161</v>
       </c>
       <c r="H422" s="8"/>
       <c r="I422" s="8"/>
@@ -13862,10 +14177,10 @@
         <v>423</v>
       </c>
       <c r="B423" s="5" t="s">
-        <v>1148</v>
+        <v>1162</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>1149</v>
+        <v>1163</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>1019</v>
@@ -13880,10 +14195,10 @@
         <v>424</v>
       </c>
       <c r="B424" s="5" t="s">
-        <v>1150</v>
+        <v>1164</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>1151</v>
+        <v>1165</v>
       </c>
       <c r="D424" s="5" t="s">
         <v>1019</v>
@@ -13900,10 +14215,10 @@
         <v>425</v>
       </c>
       <c r="B425" s="5" t="s">
-        <v>1152</v>
+        <v>1166</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>1153</v>
+        <v>1167</v>
       </c>
       <c r="D425" s="5" t="s">
         <v>1019</v>
@@ -13920,10 +14235,10 @@
         <v>426</v>
       </c>
       <c r="B426" s="5" t="s">
-        <v>1154</v>
+        <v>1168</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>1155</v>
+        <v>1169</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>1019</v>
@@ -13940,10 +14255,10 @@
         <v>427</v>
       </c>
       <c r="B427" s="5" t="s">
-        <v>1156</v>
+        <v>1170</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>1157</v>
+        <v>1171</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>1019</v>
@@ -13958,10 +14273,10 @@
         <v>428</v>
       </c>
       <c r="B428" s="5" t="s">
-        <v>1158</v>
+        <v>1172</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>1159</v>
+        <v>1173</v>
       </c>
       <c r="D428" s="5" t="s">
         <v>1019</v>
@@ -13976,10 +14291,10 @@
         <v>429</v>
       </c>
       <c r="B429" s="5" t="s">
-        <v>1160</v>
+        <v>1174</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>1161</v>
+        <v>1175</v>
       </c>
       <c r="D429" s="5" t="s">
         <v>1019</v>
@@ -13996,10 +14311,10 @@
         <v>430</v>
       </c>
       <c r="B430" s="5" t="s">
-        <v>1162</v>
+        <v>1176</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>1163</v>
+        <v>1177</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>1019</v>
@@ -14014,10 +14329,10 @@
         <v>431</v>
       </c>
       <c r="B431" s="5" t="s">
-        <v>1164</v>
+        <v>1178</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>1165</v>
+        <v>1179</v>
       </c>
       <c r="D431" s="5" t="s">
         <v>1019</v>
@@ -14032,10 +14347,10 @@
         <v>432</v>
       </c>
       <c r="B432" s="5" t="s">
-        <v>1166</v>
+        <v>1180</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>1167</v>
+        <v>1181</v>
       </c>
       <c r="D432" s="5" t="s">
         <v>1019</v>
@@ -14052,10 +14367,10 @@
         <v>433</v>
       </c>
       <c r="B433" s="5" t="s">
-        <v>1168</v>
+        <v>1182</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>1169</v>
+        <v>1183</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>1019</v>
@@ -14070,10 +14385,10 @@
         <v>434</v>
       </c>
       <c r="B434" s="5" t="s">
-        <v>1170</v>
+        <v>1184</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>1171</v>
+        <v>1185</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>1019</v>
@@ -14092,10 +14407,10 @@
         <v>435</v>
       </c>
       <c r="B435" s="5" t="s">
-        <v>1172</v>
+        <v>1186</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>1173</v>
+        <v>1187</v>
       </c>
       <c r="D435" s="5" t="s">
         <v>1019</v>
@@ -14112,10 +14427,10 @@
         <v>436</v>
       </c>
       <c r="B436" s="5" t="s">
-        <v>1174</v>
+        <v>1188</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>1175</v>
+        <v>1189</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>1019</v>
@@ -14132,10 +14447,10 @@
         <v>437</v>
       </c>
       <c r="B437" s="5" t="s">
-        <v>1176</v>
+        <v>1190</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>1177</v>
+        <v>1191</v>
       </c>
       <c r="D437" s="5" t="s">
         <v>1019</v>
@@ -14150,10 +14465,10 @@
         <v>438</v>
       </c>
       <c r="B438" s="5" t="s">
-        <v>1178</v>
+        <v>1192</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>1179</v>
+        <v>1193</v>
       </c>
       <c r="D438" s="5" t="s">
         <v>1019</v>
@@ -14168,10 +14483,10 @@
         <v>439</v>
       </c>
       <c r="B439" s="5" t="s">
-        <v>1180</v>
+        <v>1194</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>1181</v>
+        <v>1195</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>1019</v>
@@ -14188,13 +14503,16 @@
         <v>440</v>
       </c>
       <c r="B440" s="5" t="s">
-        <v>1182</v>
+        <v>1196</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>1183</v>
+        <v>1197</v>
       </c>
       <c r="D440" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F440" s="1" t="s">
+        <v>1198</v>
       </c>
       <c r="H440" s="8"/>
       <c r="I440" s="8"/>
@@ -14208,10 +14526,10 @@
         <v>441</v>
       </c>
       <c r="B441" s="5" t="s">
-        <v>1184</v>
+        <v>1199</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>1185</v>
+        <v>1200</v>
       </c>
       <c r="D441" s="5" t="s">
         <v>1019</v>
@@ -14230,10 +14548,10 @@
         <v>442</v>
       </c>
       <c r="B442" s="5" t="s">
-        <v>1186</v>
+        <v>1201</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>1187</v>
+        <v>1202</v>
       </c>
       <c r="D442" s="5" t="s">
         <v>1019</v>
@@ -14252,13 +14570,16 @@
         <v>443</v>
       </c>
       <c r="B443" s="5" t="s">
-        <v>1188</v>
+        <v>1203</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>1189</v>
+        <v>1204</v>
       </c>
       <c r="D443" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F443" s="1" t="s">
+        <v>1205</v>
       </c>
       <c r="H443" s="8" t="s">
         <v>20</v>
@@ -14274,10 +14595,10 @@
         <v>444</v>
       </c>
       <c r="B444" s="5" t="s">
-        <v>1190</v>
+        <v>1206</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>1191</v>
+        <v>1207</v>
       </c>
       <c r="D444" s="5" t="s">
         <v>1019</v>
@@ -14296,10 +14617,10 @@
         <v>445</v>
       </c>
       <c r="B445" s="5" t="s">
-        <v>1192</v>
+        <v>1208</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>1193</v>
+        <v>1209</v>
       </c>
       <c r="D445" s="5" t="s">
         <v>1019</v>
@@ -14314,13 +14635,16 @@
         <v>446</v>
       </c>
       <c r="B446" s="5" t="s">
-        <v>1194</v>
+        <v>1210</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>1195</v>
+        <v>1211</v>
       </c>
       <c r="D446" s="5" t="s">
         <v>1019</v>
+      </c>
+      <c r="F446" s="1" t="s">
+        <v>1212</v>
       </c>
       <c r="H446" s="8"/>
       <c r="I446" s="8"/>
@@ -14334,10 +14658,10 @@
         <v>447</v>
       </c>
       <c r="B447" s="5" t="s">
-        <v>1196</v>
+        <v>1213</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>1197</v>
+        <v>1214</v>
       </c>
       <c r="D447" s="5" t="s">
         <v>1019</v>
@@ -14373,7 +14697,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="H2" activeCellId="1" sqref="F33 H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14399,16 +14723,16 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>1198</v>
+        <v>1215</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>1199</v>
+        <v>1216</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>1200</v>
+        <v>1217</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>1201</v>
+        <v>1218</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>6</v>
@@ -14425,19 +14749,19 @@
         <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1202</v>
+        <v>1219</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1203</v>
+        <v>1220</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>1204</v>
+        <v>1221</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>1205</v>
+        <v>1222</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>1206</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14445,23 +14769,23 @@
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1207</v>
+        <v>1224</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1208</v>
+        <v>1225</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>1209</v>
+        <v>1226</v>
       </c>
       <c r="F3" s="11"/>
       <c r="G3" s="10" t="s">
-        <v>1210</v>
+        <v>1227</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>1211</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14469,22 +14793,22 @@
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1212</v>
+        <v>1229</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1213</v>
+        <v>1230</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>1214</v>
+        <v>1231</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1215</v>
+        <v>1232</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>1216</v>
+        <v>1233</v>
       </c>
       <c r="H4" s="11"/>
     </row>
@@ -14493,20 +14817,20 @@
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1217</v>
+        <v>1234</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1218</v>
+        <v>1235</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>1219</v>
+        <v>1236</v>
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="12" t="s">
-        <v>1220</v>
+        <v>1237</v>
       </c>
       <c r="H5" s="11"/>
     </row>
@@ -14515,23 +14839,23 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1221</v>
+        <v>1238</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>1222</v>
+        <v>1239</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>1223</v>
+        <v>1240</v>
       </c>
       <c r="F6" s="11"/>
       <c r="G6" s="10" t="s">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>1225</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14539,20 +14863,20 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1226</v>
+        <v>1243</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1227</v>
+        <v>1244</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>1228</v>
+        <v>1245</v>
       </c>
       <c r="F7" s="11"/>
       <c r="G7" s="10" t="s">
-        <v>1229</v>
+        <v>1246</v>
       </c>
       <c r="H7" s="11"/>
     </row>
@@ -14561,23 +14885,23 @@
         <v>1006</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1230</v>
+        <v>1247</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1231</v>
+        <v>1248</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>1232</v>
+        <v>1249</v>
       </c>
       <c r="F8" s="11"/>
       <c r="G8" s="10" t="s">
-        <v>1233</v>
+        <v>1250</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>1234</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14591,19 +14915,19 @@
         <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>1235</v>
+        <v>1252</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>1236</v>
+        <v>1253</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>1237</v>
+        <v>1254</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>1205</v>
+        <v>1222</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>1238</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14611,20 +14935,20 @@
         <v>1008</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1239</v>
+        <v>1256</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1240</v>
+        <v>1257</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>1241</v>
+        <v>1258</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12" t="s">
-        <v>1242</v>
+        <v>1259</v>
       </c>
       <c r="H10" s="11"/>
     </row>
@@ -14633,20 +14957,20 @@
         <v>1009</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1243</v>
+        <v>1260</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1244</v>
+        <v>1261</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>1245</v>
+        <v>1262</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12" t="s">
-        <v>1246</v>
+        <v>1263</v>
       </c>
       <c r="H11" s="11"/>
     </row>
@@ -14655,25 +14979,25 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1247</v>
+        <v>1264</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>1248</v>
+        <v>1265</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>1249</v>
+        <v>1266</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>1250</v>
+        <v>1267</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>1251</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14681,25 +15005,25 @@
         <v>1011</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1252</v>
+        <v>1269</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1253</v>
+        <v>1270</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>1254</v>
+        <v>1271</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>1255</v>
+        <v>1272</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>1220</v>
+        <v>1237</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>1256</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14707,22 +15031,22 @@
         <v>1012</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1257</v>
+        <v>1274</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1258</v>
+        <v>1275</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>1259</v>
+        <v>1276</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>1260</v>
+        <v>1277</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>1261</v>
+        <v>1278</v>
       </c>
       <c r="H14" s="11"/>
     </row>
@@ -14731,23 +15055,23 @@
         <v>1013</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1262</v>
+        <v>1279</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1263</v>
+        <v>1280</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>1264</v>
+        <v>1281</v>
       </c>
       <c r="F15" s="11"/>
       <c r="G15" s="10" t="s">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>1225</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14755,20 +15079,20 @@
         <v>1014</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1265</v>
+        <v>1282</v>
       </c>
       <c r="C16" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1266</v>
+        <v>1283</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>1267</v>
+        <v>1284</v>
       </c>
       <c r="F16" s="11"/>
       <c r="G16" s="10" t="s">
-        <v>1268</v>
+        <v>1285</v>
       </c>
       <c r="H16" s="11"/>
     </row>
@@ -14777,20 +15101,20 @@
         <v>1015</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1269</v>
+        <v>1286</v>
       </c>
       <c r="C17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1270</v>
+        <v>1287</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>1271</v>
+        <v>1288</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="10" t="s">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="H17" s="11"/>
     </row>
@@ -14799,23 +15123,23 @@
         <v>1016</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1272</v>
+        <v>1289</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>1273</v>
+        <v>1290</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>1274</v>
+        <v>1291</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="10" t="s">
-        <v>1275</v>
+        <v>1292</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>1276</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14829,19 +15153,19 @@
         <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1277</v>
+        <v>1294</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>1278</v>
+        <v>1295</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>1279</v>
+        <v>1296</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>1280</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14849,23 +15173,23 @@
         <v>1018</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1281</v>
+        <v>1298</v>
       </c>
       <c r="C20" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1282</v>
+        <v>1299</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>1283</v>
+        <v>1300</v>
       </c>
       <c r="F20" s="11"/>
       <c r="G20" s="10" t="s">
-        <v>1284</v>
+        <v>1301</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>1285</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14873,25 +15197,25 @@
         <v>1019</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1286</v>
+        <v>1303</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>1287</v>
+        <v>1304</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>1288</v>
+        <v>1305</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>1289</v>
+        <v>1306</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>1220</v>
+        <v>1237</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>1256</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14899,22 +15223,22 @@
         <v>1020</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1290</v>
+        <v>1307</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>1291</v>
+        <v>1308</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>1292</v>
+        <v>1309</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>1293</v>
+        <v>1310</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="H22" s="11"/>
     </row>
@@ -14923,23 +15247,23 @@
         <v>1021</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1294</v>
+        <v>1311</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1295</v>
+        <v>1312</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>1296</v>
+        <v>1313</v>
       </c>
       <c r="F23" s="11"/>
       <c r="G23" s="10" t="s">
-        <v>1297</v>
+        <v>1314</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>1298</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14947,23 +15271,23 @@
         <v>1022</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1299</v>
+        <v>1316</v>
       </c>
       <c r="C24" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1300</v>
+        <v>1317</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>1301</v>
+        <v>1318</v>
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="10" t="s">
-        <v>1284</v>
+        <v>1301</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>1302</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14977,19 +15301,19 @@
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1303</v>
+        <v>1320</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>1304</v>
+        <v>1321</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>1305</v>
+        <v>1322</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>1306</v>
+        <v>1323</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>1307</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14997,25 +15321,25 @@
         <v>1024</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1308</v>
+        <v>1325</v>
       </c>
       <c r="C26" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1309</v>
+        <v>1326</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>1310</v>
+        <v>1327</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>1311</v>
+        <v>1328</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>1220</v>
+        <v>1237</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>1256</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15023,23 +15347,23 @@
         <v>1025</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1312</v>
+        <v>1329</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1313</v>
+        <v>1330</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>1314</v>
+        <v>1331</v>
       </c>
       <c r="F27" s="11"/>
       <c r="G27" s="10" t="s">
-        <v>1268</v>
+        <v>1285</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>1276</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15047,20 +15371,20 @@
         <v>1026</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1315</v>
+        <v>1332</v>
       </c>
       <c r="C28" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1316</v>
+        <v>1333</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>1317</v>
+        <v>1334</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="10" t="s">
-        <v>1224</v>
+        <v>1241</v>
       </c>
       <c r="H28" s="11"/>
     </row>
@@ -15069,23 +15393,23 @@
         <v>1027</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1318</v>
+        <v>1335</v>
       </c>
       <c r="C29" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1319</v>
+        <v>1336</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>1320</v>
+        <v>1337</v>
       </c>
       <c r="F29" s="11"/>
       <c r="G29" s="10" t="s">
-        <v>1321</v>
+        <v>1338</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>1322</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15093,20 +15417,20 @@
         <v>1028</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1323</v>
+        <v>1340</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>1324</v>
+        <v>1341</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>1325</v>
+        <v>1342</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="10" t="s">
-        <v>1205</v>
+        <v>1222</v>
       </c>
       <c r="H30" s="11"/>
     </row>
@@ -15115,23 +15439,23 @@
         <v>1029</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1326</v>
+        <v>1343</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>1327</v>
+        <v>1344</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>1328</v>
+        <v>1345</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="10" t="s">
-        <v>1329</v>
+        <v>1346</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>1276</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15139,25 +15463,25 @@
         <v>1030</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1330</v>
+        <v>1347</v>
       </c>
       <c r="C32" s="9" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1331</v>
+        <v>1348</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>1332</v>
+        <v>1349</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>1333</v>
+        <v>1350</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>1220</v>
+        <v>1237</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>1256</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15165,22 +15489,22 @@
         <v>1032</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1334</v>
+        <v>1351</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>1335</v>
+        <v>1352</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>1336</v>
+        <v>1353</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>1337</v>
+        <v>1354</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>1338</v>
+        <v>1355</v>
       </c>
       <c r="H33" s="11"/>
     </row>
@@ -15189,20 +15513,20 @@
         <v>1033</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1339</v>
+        <v>1356</v>
       </c>
       <c r="C34" s="9" t="s">
         <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>1340</v>
+        <v>1357</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>1341</v>
+        <v>1358</v>
       </c>
       <c r="F34" s="11"/>
       <c r="G34" s="10" t="s">
-        <v>1342</v>
+        <v>1359</v>
       </c>
       <c r="H34" s="11"/>
     </row>
@@ -15211,121 +15535,131 @@
         <v>1034</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1343</v>
+        <v>1360</v>
       </c>
       <c r="C35" s="9" t="s">
         <v>706</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>1344</v>
+        <v>1361</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>1345</v>
+        <v>1362</v>
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="H35" s="10"/>
+        <v>1363</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="n">
         <v>1035</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1347</v>
+        <v>1365</v>
       </c>
       <c r="C36" s="9" t="s">
         <v>706</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>1348</v>
+        <v>1366</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>1349</v>
+        <v>1367</v>
       </c>
       <c r="F36" s="11"/>
       <c r="G36" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="H36" s="10"/>
+        <v>1363</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="n">
         <v>1036</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>1350</v>
+        <v>1368</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>706</v>
       </c>
       <c r="D37" s="14" t="s">
-        <v>1351</v>
+        <v>1369</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>1352</v>
+        <v>1370</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>1353</v>
+        <v>1371</v>
       </c>
       <c r="G37" s="12" t="s">
-        <v>1354</v>
-      </c>
-      <c r="H37" s="10"/>
+        <v>1372</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>1373</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="n">
         <v>1037</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>1355</v>
+        <v>1374</v>
       </c>
       <c r="C38" s="9" t="s">
         <v>706</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>1356</v>
+        <v>1375</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>1357</v>
+        <v>1376</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>1358</v>
+        <v>1377</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H38" s="10"/>
+        <v>1378</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>1379</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="n">
         <v>1038</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>1360</v>
+        <v>1380</v>
       </c>
       <c r="C39" s="9" t="s">
         <v>706</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>1361</v>
+        <v>1381</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>1362</v>
+        <v>1382</v>
       </c>
       <c r="F39" s="11"/>
       <c r="G39" s="12" t="s">
-        <v>1346</v>
-      </c>
-      <c r="H39" s="10"/>
+        <v>1363</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>1364</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="3" t="n">
         <v>1039</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1363</v>
+        <v>1383</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>1019</v>
@@ -15336,7 +15670,7 @@
         <v>1040</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1364</v>
+        <v>1384</v>
       </c>
       <c r="C41" s="15" t="s">
         <v>1019</v>
@@ -15347,7 +15681,7 @@
         <v>1041</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1365</v>
+        <v>1385</v>
       </c>
       <c r="C42" s="15" t="s">
         <v>1019</v>
@@ -15358,7 +15692,7 @@
         <v>1042</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1366</v>
+        <v>1386</v>
       </c>
       <c r="C43" s="15" t="s">
         <v>1019</v>
@@ -15369,7 +15703,7 @@
         <v>1043</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1367</v>
+        <v>1387</v>
       </c>
       <c r="C44" s="15" t="s">
         <v>1019</v>
@@ -15380,7 +15714,7 @@
         <v>1044</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>1368</v>
+        <v>1388</v>
       </c>
       <c r="C45" s="15" t="s">
         <v>1019</v>
@@ -15391,10 +15725,19 @@
         <v>1045</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>1369</v>
+        <v>1389</v>
       </c>
       <c r="C46" s="15" t="s">
         <v>1019</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>1390</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>1392</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15402,7 +15745,7 @@
         <v>1046</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1370</v>
+        <v>1393</v>
       </c>
       <c r="C47" s="15" t="s">
         <v>1019</v>
@@ -15413,7 +15756,7 @@
         <v>1047</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>1371</v>
+        <v>1394</v>
       </c>
       <c r="C48" s="15" t="s">
         <v>1019</v>
@@ -15424,7 +15767,7 @@
         <v>1048</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>1372</v>
+        <v>1395</v>
       </c>
       <c r="C49" s="15" t="s">
         <v>1019</v>
@@ -15435,7 +15778,7 @@
         <v>1049</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>1373</v>
+        <v>1396</v>
       </c>
       <c r="C50" s="15" t="s">
         <v>1019</v>
@@ -15446,7 +15789,7 @@
         <v>1050</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1374</v>
+        <v>1397</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>1019</v>
@@ -15457,7 +15800,7 @@
         <v>1051</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>1375</v>
+        <v>1398</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>1019</v>
@@ -15485,16 +15828,16 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+      <selection pane="bottomRight" activeCell="F33" activeCellId="0" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="45.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="49.7"/>
@@ -15513,13 +15856,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>1198</v>
+        <v>1215</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>1199</v>
+        <v>1216</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>1376</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15527,7 +15870,7 @@
         <v>2000</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1377</v>
+        <v>1400</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>13</v>
@@ -15541,7 +15884,7 @@
         <v>2001</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1378</v>
+        <v>1401</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>13</v>
@@ -15555,7 +15898,7 @@
         <v>2002</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1379</v>
+        <v>1402</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>13</v>
@@ -15569,7 +15912,7 @@
         <v>2013</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1380</v>
+        <v>1403</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>13</v>
@@ -15583,7 +15926,7 @@
         <v>2014</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>1381</v>
+        <v>1404</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>13</v>
@@ -15597,7 +15940,7 @@
         <v>2017</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1382</v>
+        <v>1405</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>13</v>
@@ -15611,7 +15954,7 @@
         <v>2010</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1383</v>
+        <v>1406</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>13</v>
@@ -15625,7 +15968,7 @@
         <v>2008</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1384</v>
+        <v>1407</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>13</v>
@@ -15639,7 +15982,7 @@
         <v>2021</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1385</v>
+        <v>1408</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>13</v>
@@ -15653,7 +15996,7 @@
         <v>2022</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1386</v>
+        <v>1409</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>13</v>
@@ -15667,7 +16010,7 @@
         <v>2012</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1387</v>
+        <v>1410</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>13</v>
@@ -15681,7 +16024,7 @@
         <v>2011</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1388</v>
+        <v>1411</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>13</v>
@@ -15695,7 +16038,7 @@
         <v>2015</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>1389</v>
+        <v>1412</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>13</v>
@@ -15709,7 +16052,7 @@
         <v>2016</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1390</v>
+        <v>1413</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>13</v>
@@ -15723,7 +16066,7 @@
         <v>2023</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1391</v>
+        <v>1414</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>13</v>
@@ -15737,7 +16080,7 @@
         <v>2024</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1392</v>
+        <v>1415</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>13</v>
@@ -15751,251 +16094,345 @@
         <v>2020</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1393</v>
+        <v>1416</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+      <c r="D18" s="3" t="s">
+        <v>1417</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>1419</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="n">
         <v>2003</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>1394</v>
+        <v>1420</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3" t="s">
+        <v>1421</v>
+      </c>
       <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="10" t="s">
+        <v>1422</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <v>2004</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1395</v>
+        <v>1423</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="D20" s="3" t="s">
+        <v>1424</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>1425</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>1426</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="n">
         <v>2006</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1396</v>
+        <v>1427</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>1428</v>
+      </c>
       <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="10" t="s">
+        <v>1429</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <v>2005</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1397</v>
+        <v>1430</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="D22" s="3" t="s">
+        <v>1431</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>1433</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="n">
         <v>2018</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>1398</v>
+        <v>1434</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3" t="s">
+        <v>1435</v>
+      </c>
       <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+      <c r="F23" s="10" t="s">
+        <v>1436</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="n">
         <v>2009</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>1399</v>
+        <v>1437</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="D24" s="3" t="s">
+        <v>1438</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>1439</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>1440</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="n">
         <v>2025</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>1400</v>
+        <v>1441</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D25" s="3"/>
+      <c r="D25" s="3" t="s">
+        <v>1442</v>
+      </c>
       <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="F25" s="10" t="s">
+        <v>1443</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="n">
         <v>2007</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1401</v>
+        <v>1444</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="D26" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>1445</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>1446</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="n">
         <v>2019</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1402</v>
+        <v>1447</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>1448</v>
+      </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="10"/>
+      <c r="F27" s="10" t="s">
+        <v>1449</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="n">
         <v>2031</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1403</v>
+        <v>1450</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="D28" s="3" t="s">
+        <v>1451</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>1452</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>1453</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="3" t="n">
         <v>2030</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1404</v>
+        <v>1454</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="D29" s="3" t="s">
+        <v>1455</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>1456</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>1453</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="3" t="n">
         <v>2033</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1405</v>
+        <v>1457</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="D30" s="3" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>1453</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="3" t="n">
         <v>2032</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1406</v>
+        <v>1460</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="10"/>
+      <c r="D31" s="3" t="s">
+        <v>1461</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>1463</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="3" t="n">
         <v>2026</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1407</v>
+        <v>1464</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="D32" s="3" t="s">
+        <v>1465</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>1466</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>1467</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="3" t="n">
         <v>2027</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>1408</v>
+        <v>1468</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
+      <c r="D33" s="3" t="s">
+        <v>1469</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>1470</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>1467</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="3" t="n">
         <v>2029</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>1409</v>
+        <v>1471</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>706</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
+      <c r="D34" s="3" t="s">
+        <v>1472</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>1474</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="3" t="n">
         <v>2028</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>1410</v>
+        <v>1475</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>706</v>
       </c>
       <c r="D35" s="3"/>
-      <c r="E35" s="10"/>
+      <c r="E35" s="10" t="s">
+        <v>1476</v>
+      </c>
       <c r="F35" s="10"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16003,7 +16440,7 @@
         <v>2043</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>1411</v>
+        <v>1477</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>1019</v>
@@ -16017,13 +16454,15 @@
         <v>2040</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>1412</v>
+        <v>1478</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+      <c r="E37" s="10" t="s">
+        <v>1479</v>
+      </c>
       <c r="F37" s="10"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16031,13 +16470,15 @@
         <v>2035</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>1413</v>
+        <v>1480</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+      <c r="E38" s="10" t="s">
+        <v>1481</v>
+      </c>
       <c r="F38" s="10"/>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16045,13 +16486,15 @@
         <v>2041</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>1414</v>
+        <v>1482</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>1483</v>
+      </c>
       <c r="F39" s="10"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16059,13 +16502,15 @@
         <v>2042</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1415</v>
+        <v>1484</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
+      <c r="E40" s="10" t="s">
+        <v>1485</v>
+      </c>
       <c r="F40" s="10"/>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16073,13 +16518,15 @@
         <v>2044</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1416</v>
+        <v>1486</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
+      <c r="E41" s="10" t="s">
+        <v>1487</v>
+      </c>
       <c r="F41" s="10"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16087,7 +16534,7 @@
         <v>2036</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1417</v>
+        <v>1488</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>1019</v>
@@ -16101,13 +16548,15 @@
         <v>2034</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1418</v>
+        <v>1489</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
+      <c r="E43" s="10" t="s">
+        <v>1490</v>
+      </c>
       <c r="F43" s="10"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16115,13 +16564,15 @@
         <v>2037</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1419</v>
+        <v>1491</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
+      <c r="E44" s="10" t="s">
+        <v>1492</v>
+      </c>
       <c r="F44" s="10"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16129,13 +16580,15 @@
         <v>2038</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>1420</v>
+        <v>1493</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
+      <c r="E45" s="10" t="s">
+        <v>1494</v>
+      </c>
       <c r="F45" s="10"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16143,13 +16596,15 @@
         <v>2039</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>1421</v>
+        <v>1495</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
+      <c r="E46" s="10" t="s">
+        <v>1496</v>
+      </c>
       <c r="F46" s="10"/>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16157,13 +16612,15 @@
         <v>2045</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>1422</v>
+        <v>1497</v>
       </c>
       <c r="C47" s="10" t="s">
         <v>1019</v>
       </c>
       <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
+      <c r="E47" s="10" t="s">
+        <v>1498</v>
+      </c>
       <c r="F47" s="10"/>
     </row>
   </sheetData>
@@ -16189,7 +16646,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="1" sqref="F33 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16203,55 +16660,55 @@
         <v>1</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1423</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1424</v>
+        <v>1500</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1425</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>1426</v>
+        <v>1502</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1427</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>1428</v>
+        <v>1504</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1429</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>1430</v>
+        <v>1506</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1431</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>1432</v>
+        <v>1508</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1433</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>1434</v>
+        <v>1510</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1435</v>
+        <v>1511</v>
       </c>
     </row>
   </sheetData>
@@ -16278,7 +16735,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="1" sqref="F33 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16289,15 +16746,15 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>1198</v>
+        <v>1215</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>1436</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1437</v>
+        <v>1513</v>
       </c>
       <c r="B2" s="18" t="b">
         <f aca="false">FALSE()</f>

--- a/i18n/pt.xlsx
+++ b/i18n/pt.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2770" uniqueCount="1513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2771" uniqueCount="1514">
   <si>
     <t>id</t>
   </si>
@@ -4607,6 +4607,9 @@
   <si>
     <t>Cada jogador pode rolar 1 [die] qualquer e ganhar essa comida do estoque.</t>
   </si>
+  <si>
+    <t>Flavor text</t>
+  </si>
 </sst>
 </file>
 
@@ -4615,7 +4618,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;PRAWDA&quot;;&quot;PRAWDA&quot;;&quot;FAŁSZ&quot;"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4655,6 +4658,12 @@
       <name val="Calibri"/>
       <charset val="238"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -4691,7 +4700,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1"/>
@@ -4729,11 +4738,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -4815,15 +4830,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:K447" totalsRowShown="0">
-  <autoFilter ref="A1:K447"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="birds" displayName="birds" ref="A1:L447" totalsRowShown="0">
+  <autoFilter ref="A1:L447"/>
+  <tableColumns count="12">
     <tableColumn id="1" name="id"/>
     <tableColumn id="2" name="English name"/>
     <tableColumn id="3" name="Scientific name"/>
     <tableColumn id="4" name="Expansion"/>
     <tableColumn id="5" name="Common name"/>
     <tableColumn id="6" name="Power text"/>
+    <tableColumn id="12" name="Flavor text" dataDxfId="0"/>
     <tableColumn id="7" name="Note"/>
     <tableColumn id="8" name="Anatomist"/>
     <tableColumn id="9" name="Cartographer"/>
@@ -5038,13 +5054,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K447"/>
+  <dimension ref="A1:L447"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C394" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A282" sqref="A282"/>
-      <selection pane="bottomRight" activeCell="F411" sqref="F411"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5055,11 +5071,12 @@
     <col min="4" max="4" width="12.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="3.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="39" style="1" customWidth="1"/>
-    <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="39" style="18" customWidth="1"/>
+    <col min="8" max="8" width="6.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5078,23 +5095,26 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="21" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>2</v>
       </c>
@@ -5110,11 +5130,11 @@
       <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -5130,14 +5150,14 @@
       <c r="F3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -5153,14 +5173,14 @@
       <c r="F4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -5176,14 +5196,14 @@
       <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -5199,14 +5219,14 @@
       <c r="F6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -5222,14 +5242,14 @@
       <c r="F7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -5245,14 +5265,14 @@
       <c r="F8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -5268,14 +5288,14 @@
       <c r="F9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>1510</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -5288,14 +5308,14 @@
       <c r="D10" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -5311,14 +5331,14 @@
       <c r="F11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -5334,17 +5354,17 @@
       <c r="F12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -5357,11 +5377,11 @@
       <c r="D13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -5377,14 +5397,14 @@
       <c r="F14" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -5400,11 +5420,11 @@
       <c r="F15" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -5420,17 +5440,17 @@
       <c r="F16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -5446,17 +5466,17 @@
       <c r="F17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -5473,7 +5493,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -5490,7 +5510,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -5507,7 +5527,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -5523,11 +5543,11 @@
       <c r="F21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -5543,11 +5563,11 @@
       <c r="F22" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -5563,11 +5583,11 @@
       <c r="F23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -5583,14 +5603,14 @@
       <c r="F24" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -5606,20 +5626,20 @@
       <c r="F25" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J25" s="1" t="s">
+      <c r="I25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K25" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -5635,11 +5655,11 @@
       <c r="F26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -5655,14 +5675,14 @@
       <c r="F27" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="J27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -5678,11 +5698,11 @@
       <c r="F28" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -5698,11 +5718,11 @@
       <c r="F29" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -5718,14 +5738,14 @@
       <c r="F30" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -5741,14 +5761,14 @@
       <c r="F31" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K31" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -5764,14 +5784,14 @@
       <c r="F32" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="K32" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -5787,14 +5807,14 @@
       <c r="F33" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="K33" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -5810,17 +5830,17 @@
       <c r="F34" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -5836,17 +5856,17 @@
       <c r="F35" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -5859,14 +5879,14 @@
       <c r="D36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>37</v>
       </c>
@@ -5882,17 +5902,17 @@
       <c r="F37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K37" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -5908,17 +5928,17 @@
       <c r="F38" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39</v>
       </c>
@@ -5934,17 +5954,17 @@
       <c r="F39" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="H39" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -5960,14 +5980,14 @@
       <c r="F40" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -5983,14 +6003,14 @@
       <c r="F41" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -6006,17 +6026,17 @@
       <c r="F42" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K42" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -6032,14 +6052,14 @@
       <c r="F43" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K43" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>44</v>
       </c>
@@ -6055,11 +6075,11 @@
       <c r="F44" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="K44" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>45</v>
       </c>
@@ -6072,14 +6092,14 @@
       <c r="D45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K45" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -6095,17 +6115,18 @@
       <c r="F46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="1" t="s">
+      <c r="G46" s="2"/>
+      <c r="I46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K46" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -6121,14 +6142,15 @@
       <c r="F47" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="7"/>
+      <c r="H47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="J47" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K47" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -6144,11 +6166,11 @@
       <c r="F48" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -6161,11 +6183,11 @@
       <c r="D49" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K49" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -6181,14 +6203,14 @@
       <c r="F50" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K50" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -6201,11 +6223,11 @@
       <c r="D51" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I51" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -6221,14 +6243,14 @@
       <c r="F52" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K52" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -6244,11 +6266,11 @@
       <c r="F53" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K53" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -6264,17 +6286,17 @@
       <c r="F54" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K54" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -6290,11 +6312,11 @@
       <c r="F55" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -6310,11 +6332,11 @@
       <c r="F56" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>57</v>
       </c>
@@ -6330,11 +6352,11 @@
       <c r="F57" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>58</v>
       </c>
@@ -6350,14 +6372,14 @@
       <c r="F58" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J58" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>59</v>
       </c>
@@ -6373,11 +6395,11 @@
       <c r="F59" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J59" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>60</v>
       </c>
@@ -6393,14 +6415,14 @@
       <c r="F60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J60" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>61</v>
       </c>
@@ -6413,11 +6435,11 @@
       <c r="D61" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I61" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>62</v>
       </c>
@@ -6433,14 +6455,14 @@
       <c r="F62" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>63</v>
       </c>
@@ -6456,14 +6478,14 @@
       <c r="F63" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J63" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>64</v>
       </c>
@@ -6479,11 +6501,11 @@
       <c r="F64" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J64" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K64" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>65</v>
       </c>
@@ -6499,14 +6521,14 @@
       <c r="F65" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J65" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K65" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -6523,7 +6545,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -6539,14 +6561,14 @@
       <c r="F67" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I67" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -6562,17 +6584,17 @@
       <c r="F68" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="J68" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K68" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -6588,11 +6610,11 @@
       <c r="F69" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" s="1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -6608,17 +6630,17 @@
       <c r="F70" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I70" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L70" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -6634,14 +6656,14 @@
       <c r="F71" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J71" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -6657,11 +6679,11 @@
       <c r="F72" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -6677,11 +6699,11 @@
       <c r="F73" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K73" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>74</v>
       </c>
@@ -6697,14 +6719,14 @@
       <c r="F74" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J74" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -6720,11 +6742,11 @@
       <c r="F75" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -6740,14 +6762,14 @@
       <c r="F76" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="K76" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -6763,14 +6785,14 @@
       <c r="F77" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -6786,11 +6808,11 @@
       <c r="F78" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -6806,11 +6828,11 @@
       <c r="F79" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -6826,11 +6848,11 @@
       <c r="F80" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" s="1" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -6846,11 +6868,11 @@
       <c r="F81" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" s="1" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -6866,17 +6888,17 @@
       <c r="F82" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K82" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -6892,11 +6914,11 @@
       <c r="F83" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -6912,11 +6934,11 @@
       <c r="F84" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -6932,11 +6954,11 @@
       <c r="F85" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" s="1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -6952,11 +6974,11 @@
       <c r="F86" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -6972,11 +6994,11 @@
       <c r="F87" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -6992,14 +7014,14 @@
       <c r="F88" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J88" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -7015,11 +7037,11 @@
       <c r="F89" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -7035,8 +7057,9 @@
       <c r="F90" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -7052,11 +7075,11 @@
       <c r="F91" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -7073,7 +7096,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -7090,7 +7113,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -7106,20 +7129,20 @@
       <c r="F94" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G94" s="1" t="s">
+      <c r="H94" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J94" s="1" t="s">
+      <c r="I94" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K94" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -7135,11 +7158,11 @@
       <c r="F95" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -7155,14 +7178,14 @@
       <c r="F96" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J96" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K96" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -7178,14 +7201,14 @@
       <c r="F97" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G97" s="1" t="s">
+      <c r="H97" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I97" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -7201,11 +7224,11 @@
       <c r="F98" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -7221,14 +7244,14 @@
       <c r="F99" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I99" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -7244,11 +7267,11 @@
       <c r="F100" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -7265,7 +7288,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -7281,17 +7304,17 @@
       <c r="F102" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J102" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -7307,14 +7330,14 @@
       <c r="F103" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G103" s="1" t="s">
+      <c r="H103" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J103" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -7330,14 +7353,14 @@
       <c r="F104" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J104" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -7353,11 +7376,11 @@
       <c r="F105" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J105" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -7373,14 +7396,14 @@
       <c r="F106" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J106" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -7397,7 +7420,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -7413,14 +7436,14 @@
       <c r="F108" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I108" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J108" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -7436,17 +7459,17 @@
       <c r="F109" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K109" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -7462,17 +7485,17 @@
       <c r="F110" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K110" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -7488,14 +7511,14 @@
       <c r="F111" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J111" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -7511,14 +7534,14 @@
       <c r="F112" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J112" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -7534,14 +7557,14 @@
       <c r="F113" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J113" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -7557,14 +7580,14 @@
       <c r="F114" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J114" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>115</v>
       </c>
@@ -7580,14 +7603,14 @@
       <c r="F115" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J115" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -7603,14 +7626,14 @@
       <c r="F116" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J116" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -7626,14 +7649,14 @@
       <c r="F117" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="H117" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J117" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>118</v>
       </c>
@@ -7649,14 +7672,14 @@
       <c r="F118" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J118" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -7672,14 +7695,14 @@
       <c r="F119" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K119" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L119" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>120</v>
       </c>
@@ -7695,14 +7718,14 @@
       <c r="F120" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="H120" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J120" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>121</v>
       </c>
@@ -7718,14 +7741,14 @@
       <c r="F121" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="H121" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J121" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>122</v>
       </c>
@@ -7741,14 +7764,14 @@
       <c r="F122" s="1" t="s">
         <v>359</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="H122" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J122" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>123</v>
       </c>
@@ -7764,11 +7787,11 @@
       <c r="F123" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J123" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>124</v>
       </c>
@@ -7784,14 +7807,14 @@
       <c r="F124" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="H124" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K124" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L124" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>125</v>
       </c>
@@ -7807,14 +7830,14 @@
       <c r="F125" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="H125" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J125" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K125" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>126</v>
       </c>
@@ -7830,14 +7853,14 @@
       <c r="F126" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="H126" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="J126" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K126" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>127</v>
       </c>
@@ -7853,11 +7876,11 @@
       <c r="F127" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="H127" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>128</v>
       </c>
@@ -7873,17 +7896,17 @@
       <c r="F128" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G128" s="1" t="s">
+      <c r="H128" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H128" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K128" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I128" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>129</v>
       </c>
@@ -7899,14 +7922,14 @@
       <c r="F129" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="H129" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="K129" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L129" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>130</v>
       </c>
@@ -7923,7 +7946,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>131</v>
       </c>
@@ -7939,14 +7962,14 @@
       <c r="F131" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="H131" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="K131" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L131" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>132</v>
       </c>
@@ -7962,14 +7985,14 @@
       <c r="F132" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="H132" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="K132" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L132" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>133</v>
       </c>
@@ -7985,11 +8008,11 @@
       <c r="F133" s="1" t="s">
         <v>390</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I133" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>134</v>
       </c>
@@ -8005,14 +8028,14 @@
       <c r="F134" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="H134" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I134" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>135</v>
       </c>
@@ -8028,11 +8051,11 @@
       <c r="F135" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="H135" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>136</v>
       </c>
@@ -8048,11 +8071,11 @@
       <c r="F136" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="H136" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>137</v>
       </c>
@@ -8069,7 +8092,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>138</v>
       </c>
@@ -8085,11 +8108,11 @@
       <c r="F138" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="H138" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>139</v>
       </c>
@@ -8105,14 +8128,14 @@
       <c r="F139" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="H139" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I139" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J139" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>140</v>
       </c>
@@ -8128,11 +8151,11 @@
       <c r="F140" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>141</v>
       </c>
@@ -8148,11 +8171,11 @@
       <c r="F141" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="K141" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L141" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>142</v>
       </c>
@@ -8168,14 +8191,14 @@
       <c r="F142" s="1" t="s">
         <v>415</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="H142" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="K142" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L142" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>143</v>
       </c>
@@ -8191,14 +8214,14 @@
       <c r="F143" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="H143" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="K143" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L143" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>144</v>
       </c>
@@ -8215,7 +8238,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>145</v>
       </c>
@@ -8231,11 +8254,11 @@
       <c r="F145" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G145" s="1" t="s">
+      <c r="H145" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>146</v>
       </c>
@@ -8251,11 +8274,11 @@
       <c r="F146" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="H146" s="1" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>147</v>
       </c>
@@ -8271,11 +8294,11 @@
       <c r="F147" s="1" t="s">
         <v>428</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="H147" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>148</v>
       </c>
@@ -8292,7 +8315,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>149</v>
       </c>
@@ -8306,7 +8329,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>150</v>
       </c>
@@ -8322,14 +8345,14 @@
       <c r="F150" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="H150" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="J150" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K150" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>151</v>
       </c>
@@ -8345,11 +8368,11 @@
       <c r="F151" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="H151" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>152</v>
       </c>
@@ -8366,7 +8389,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>153</v>
       </c>
@@ -8382,11 +8405,11 @@
       <c r="F153" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="H153" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>154</v>
       </c>
@@ -8402,14 +8425,14 @@
       <c r="F154" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="H154" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J154" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>155</v>
       </c>
@@ -8425,11 +8448,11 @@
       <c r="F155" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="K155" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L155" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>156</v>
       </c>
@@ -8445,11 +8468,11 @@
       <c r="F156" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="H156" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>157</v>
       </c>
@@ -8465,11 +8488,11 @@
       <c r="F157" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="H157" s="1" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>158</v>
       </c>
@@ -8485,11 +8508,11 @@
       <c r="F158" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="H158" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>159</v>
       </c>
@@ -8505,14 +8528,14 @@
       <c r="F159" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="H159" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="K159" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L159" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>160</v>
       </c>
@@ -8528,17 +8551,17 @@
       <c r="F160" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H160" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J160" s="1" t="s">
+      <c r="I160" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K160" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L160" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>161</v>
       </c>
@@ -8554,11 +8577,11 @@
       <c r="F161" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="H161" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>162</v>
       </c>
@@ -8575,7 +8598,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>163</v>
       </c>
@@ -8591,11 +8614,11 @@
       <c r="F163" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="H163" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>164</v>
       </c>
@@ -8611,14 +8634,14 @@
       <c r="F164" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="H164" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H164" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I164" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>165</v>
       </c>
@@ -8634,14 +8657,14 @@
       <c r="F165" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="H165" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="H165" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I165" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>166</v>
       </c>
@@ -8657,11 +8680,11 @@
       <c r="F166" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="H166" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>167</v>
       </c>
@@ -8677,14 +8700,14 @@
       <c r="F167" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="H167" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="I167" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J167" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>168</v>
       </c>
@@ -8700,14 +8723,14 @@
       <c r="F168" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="H168" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="J168" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K168" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>169</v>
       </c>
@@ -8723,11 +8746,11 @@
       <c r="F169" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="H169" s="1" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>170</v>
       </c>
@@ -8743,17 +8766,17 @@
       <c r="F170" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G170" s="1" t="s">
+      <c r="H170" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I170" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K170" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J170" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L170" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>171</v>
       </c>
@@ -8769,11 +8792,11 @@
       <c r="F171" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="I171" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J171" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>172</v>
       </c>
@@ -8789,11 +8812,11 @@
       <c r="F172" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="H172" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>173</v>
       </c>
@@ -8809,11 +8832,11 @@
       <c r="F173" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="H173" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>174</v>
       </c>
@@ -8829,14 +8852,14 @@
       <c r="F174" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="I174" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K174" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J174" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L174" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>175</v>
       </c>
@@ -8852,11 +8875,11 @@
       <c r="F175" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="I175" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J175" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>176</v>
       </c>
@@ -8872,11 +8895,11 @@
       <c r="F176" s="1" t="s">
         <v>504</v>
       </c>
-      <c r="I176" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J176" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>177</v>
       </c>
@@ -8892,11 +8915,11 @@
       <c r="F177" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="I177" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J177" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>178</v>
       </c>
@@ -8912,14 +8935,14 @@
       <c r="F178" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="H178" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="I178" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J178" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>179</v>
       </c>
@@ -8935,14 +8958,14 @@
       <c r="F179" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G179" s="1" t="s">
+      <c r="H179" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="I179" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J179" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>180</v>
       </c>
@@ -8958,14 +8981,14 @@
       <c r="F180" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="H180" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J180" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>181</v>
       </c>
@@ -8981,14 +9004,14 @@
       <c r="F181" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="H181" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="I181" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J181" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>182</v>
       </c>
@@ -9005,7 +9028,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>183</v>
       </c>
@@ -9021,11 +9044,11 @@
       <c r="F183" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="H183" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>184</v>
       </c>
@@ -9038,11 +9061,11 @@
       <c r="D184" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="K184" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L184" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>185</v>
       </c>
@@ -9058,14 +9081,14 @@
       <c r="F185" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="H185" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="H185" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I185" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>186</v>
       </c>
@@ -9081,14 +9104,14 @@
       <c r="F186" s="1" t="s">
         <v>378</v>
       </c>
-      <c r="G186" s="1" t="s">
+      <c r="H186" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="J186" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K186" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>187</v>
       </c>
@@ -9104,14 +9127,14 @@
       <c r="F187" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="H187" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="H187" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I187" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>188</v>
       </c>
@@ -9127,11 +9150,11 @@
       <c r="F188" s="1" t="s">
         <v>534</v>
       </c>
-      <c r="G188" s="1" t="s">
+      <c r="H188" s="1" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>189</v>
       </c>
@@ -9147,11 +9170,11 @@
       <c r="F189" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="H189" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>190</v>
       </c>
@@ -9165,7 +9188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>191</v>
       </c>
@@ -9181,14 +9204,14 @@
       <c r="F191" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G191" s="1" t="s">
+      <c r="H191" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="K191" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L191" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>192</v>
       </c>
@@ -9204,14 +9227,14 @@
       <c r="F192" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G192" s="1" t="s">
+      <c r="H192" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K192" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L192" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>193</v>
       </c>
@@ -9227,11 +9250,11 @@
       <c r="F193" s="1" t="s">
         <v>545</v>
       </c>
-      <c r="G193" s="1" t="s">
+      <c r="H193" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>194</v>
       </c>
@@ -9247,14 +9270,14 @@
       <c r="F194" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="H194" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K194" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I194" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>195</v>
       </c>
@@ -9270,14 +9293,14 @@
       <c r="F195" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="G195" s="1" t="s">
+      <c r="H195" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="K195" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L195" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>196</v>
       </c>
@@ -9293,11 +9316,11 @@
       <c r="F196" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="K196" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L196" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>197</v>
       </c>
@@ -9313,17 +9336,17 @@
       <c r="F197" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="H197" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K197" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I197" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>198</v>
       </c>
@@ -9339,17 +9362,17 @@
       <c r="F198" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="H198" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H198" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K198" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I198" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L198" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>199</v>
       </c>
@@ -9362,14 +9385,14 @@
       <c r="D199" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H199" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K199" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I199" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L199" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>200</v>
       </c>
@@ -9385,17 +9408,17 @@
       <c r="F200" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G200" s="1" t="s">
+      <c r="H200" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H200" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K200" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I200" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L200" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>201</v>
       </c>
@@ -9411,14 +9434,14 @@
       <c r="F201" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G201" s="1" t="s">
+      <c r="H201" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="K201" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L201" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>202</v>
       </c>
@@ -9434,17 +9457,17 @@
       <c r="F202" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G202" s="1" t="s">
+      <c r="H202" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K202" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I202" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L202" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>203</v>
       </c>
@@ -9460,17 +9483,17 @@
       <c r="F203" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G203" s="1" t="s">
+      <c r="H203" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H203" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K203" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I203" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L203" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>204</v>
       </c>
@@ -9486,14 +9509,14 @@
       <c r="F204" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="H204" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K204" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I204" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L204" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>205</v>
       </c>
@@ -9509,17 +9532,17 @@
       <c r="F205" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G205" s="1" t="s">
+      <c r="H205" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H205" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K205" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I205" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L205" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>206</v>
       </c>
@@ -9535,17 +9558,17 @@
       <c r="F206" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G206" s="1" t="s">
+      <c r="H206" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="H206" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K206" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I206" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L206" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>207</v>
       </c>
@@ -9561,17 +9584,17 @@
       <c r="F207" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G207" s="1" t="s">
+      <c r="H207" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H207" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K207" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I207" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L207" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>208</v>
       </c>
@@ -9587,14 +9610,14 @@
       <c r="F208" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G208" s="1" t="s">
+      <c r="H208" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H208" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I208" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>209</v>
       </c>
@@ -9610,14 +9633,14 @@
       <c r="F209" s="1" t="s">
         <v>580</v>
       </c>
-      <c r="H209" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K209" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I209" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L209" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>210</v>
       </c>
@@ -9633,17 +9656,17 @@
       <c r="F210" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G210" s="1" t="s">
+      <c r="H210" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H210" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K210" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I210" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L210" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>211</v>
       </c>
@@ -9659,17 +9682,17 @@
       <c r="F211" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G211" s="1" t="s">
+      <c r="H211" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H211" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K211" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I211" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L211" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>212</v>
       </c>
@@ -9685,17 +9708,17 @@
       <c r="F212" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="H212" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H212" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K212" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I212" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L212" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>213</v>
       </c>
@@ -9711,14 +9734,14 @@
       <c r="F213" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="H213" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="K213" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L213" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>214</v>
       </c>
@@ -9735,7 +9758,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>215</v>
       </c>
@@ -9751,14 +9774,14 @@
       <c r="F215" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="H215" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I215" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J215" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>216</v>
       </c>
@@ -9774,17 +9797,17 @@
       <c r="F216" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="H216" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I216" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J216" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K216" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>217</v>
       </c>
@@ -9800,14 +9823,14 @@
       <c r="F217" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="H217" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="J217" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K217" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>218</v>
       </c>
@@ -9823,11 +9846,11 @@
       <c r="F218" s="1" t="s">
         <v>602</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="H218" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>219</v>
       </c>
@@ -9841,7 +9864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>220</v>
       </c>
@@ -9857,11 +9880,11 @@
       <c r="F220" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="H220" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I220" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>221</v>
       </c>
@@ -9877,14 +9900,14 @@
       <c r="F221" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="H221" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="H221" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I221" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>222</v>
       </c>
@@ -9901,7 +9924,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>223</v>
       </c>
@@ -9917,14 +9940,14 @@
       <c r="F223" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="H223" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="K223" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L223" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>224</v>
       </c>
@@ -9940,11 +9963,11 @@
       <c r="F224" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="K224" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L224" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>225</v>
       </c>
@@ -9960,11 +9983,11 @@
       <c r="F225" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="H225" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>226</v>
       </c>
@@ -9980,11 +10003,11 @@
       <c r="F226" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="H226" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>227</v>
       </c>
@@ -10000,11 +10023,11 @@
       <c r="F227" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="H227" s="1" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>228</v>
       </c>
@@ -10020,11 +10043,11 @@
       <c r="F228" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="J228" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K228" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>229</v>
       </c>
@@ -10040,11 +10063,11 @@
       <c r="F229" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="H229" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>230</v>
       </c>
@@ -10060,14 +10083,14 @@
       <c r="F230" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="H230" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="J230" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K230" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>231</v>
       </c>
@@ -10083,11 +10106,11 @@
       <c r="F231" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="H231" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>232</v>
       </c>
@@ -10103,11 +10126,11 @@
       <c r="F232" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="H232" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>233</v>
       </c>
@@ -10124,7 +10147,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>234</v>
       </c>
@@ -10140,11 +10163,11 @@
       <c r="F234" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="H234" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>235</v>
       </c>
@@ -10158,7 +10181,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>236</v>
       </c>
@@ -10174,11 +10197,11 @@
       <c r="F236" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="H236" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>237</v>
       </c>
@@ -10194,14 +10217,14 @@
       <c r="F237" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="H237" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="J237" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K237" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>238</v>
       </c>
@@ -10215,7 +10238,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>239</v>
       </c>
@@ -10231,14 +10254,14 @@
       <c r="F239" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="H239" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="K239" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L239" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>240</v>
       </c>
@@ -10254,14 +10277,14 @@
       <c r="F240" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="H240" s="1" t="s">
         <v>461</v>
       </c>
-      <c r="I240" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J240" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>241</v>
       </c>
@@ -10277,11 +10300,11 @@
       <c r="F241" s="1" t="s">
         <v>451</v>
       </c>
-      <c r="I241" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J241" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>242</v>
       </c>
@@ -10297,11 +10320,11 @@
       <c r="F242" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="K242" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L242" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>243</v>
       </c>
@@ -10317,17 +10340,17 @@
       <c r="F243" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="H243" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="H243" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K243" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I243" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L243" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>244</v>
       </c>
@@ -10343,17 +10366,17 @@
       <c r="F244" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="H244" s="1" t="s">
         <v>661</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K244" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I244" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L244" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>245</v>
       </c>
@@ -10369,17 +10392,17 @@
       <c r="F245" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="H245" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K245" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I245" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L245" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>246</v>
       </c>
@@ -10395,17 +10418,17 @@
       <c r="F246" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G246" s="1" t="s">
+      <c r="H246" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H246" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K246" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I246" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L246" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>247</v>
       </c>
@@ -10421,17 +10444,17 @@
       <c r="F247" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="H247" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H247" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K247" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I247" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L247" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>248</v>
       </c>
@@ -10447,14 +10470,14 @@
       <c r="F248" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K248" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I248" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L248" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>249</v>
       </c>
@@ -10467,14 +10490,14 @@
       <c r="D249" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="H249" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K249" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I249" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L249" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>250</v>
       </c>
@@ -10490,11 +10513,11 @@
       <c r="F250" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G250" s="1" t="s">
+      <c r="H250" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>251</v>
       </c>
@@ -10508,7 +10531,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>252</v>
       </c>
@@ -10524,11 +10547,11 @@
       <c r="F252" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="H252" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>253</v>
       </c>
@@ -10544,14 +10567,14 @@
       <c r="F253" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="G253" s="1" t="s">
+      <c r="H253" s="1" t="s">
         <v>516</v>
       </c>
-      <c r="J253" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K253" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>254</v>
       </c>
@@ -10567,11 +10590,11 @@
       <c r="F254" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="H254" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>255</v>
       </c>
@@ -10587,11 +10610,11 @@
       <c r="F255" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="G255" s="1" t="s">
+      <c r="H255" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>256</v>
       </c>
@@ -10607,11 +10630,11 @@
       <c r="F256" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="H256" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>257</v>
       </c>
@@ -10627,14 +10650,14 @@
       <c r="F257" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="H257" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K257" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I257" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L257" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>258</v>
       </c>
@@ -10650,17 +10673,17 @@
       <c r="F258" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="H258" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H258" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K258" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I258" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L258" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>259</v>
       </c>
@@ -10676,17 +10699,17 @@
       <c r="F259" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="G259" s="1" t="s">
+      <c r="H259" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H259" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K259" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I259" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L259" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>260</v>
       </c>
@@ -10702,17 +10725,17 @@
       <c r="F260" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="G260" s="1" t="s">
+      <c r="H260" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H260" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K260" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I260" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L260" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>261</v>
       </c>
@@ -10728,17 +10751,17 @@
       <c r="F261" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G261" s="1" t="s">
+      <c r="H261" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H261" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K261" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I261" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L261" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>262</v>
       </c>
@@ -10754,14 +10777,14 @@
       <c r="F262" s="1" t="s">
         <v>483</v>
       </c>
-      <c r="G262" s="1" t="s">
+      <c r="H262" s="1" t="s">
         <v>484</v>
       </c>
-      <c r="K262" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L262" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>263</v>
       </c>
@@ -10777,14 +10800,14 @@
       <c r="F263" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="G263" s="1" t="s">
+      <c r="H263" s="1" t="s">
         <v>702</v>
       </c>
-      <c r="J263" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K263" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>264</v>
       </c>
@@ -10800,11 +10823,11 @@
       <c r="F264" s="1" t="s">
         <v>705</v>
       </c>
-      <c r="I264" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J264" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>265</v>
       </c>
@@ -10820,11 +10843,11 @@
       <c r="F265" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="I265" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J265" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>266</v>
       </c>
@@ -10840,14 +10863,14 @@
       <c r="F266" s="1" t="s">
         <v>711</v>
       </c>
-      <c r="G266" s="1" t="s">
+      <c r="H266" s="1" t="s">
         <v>712</v>
       </c>
-      <c r="I266" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J266" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>267</v>
       </c>
@@ -10863,11 +10886,11 @@
       <c r="F267" s="1" t="s">
         <v>715</v>
       </c>
-      <c r="I267" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J267" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>268</v>
       </c>
@@ -10883,11 +10906,11 @@
       <c r="F268" s="1" t="s">
         <v>718</v>
       </c>
-      <c r="I268" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J268" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>269</v>
       </c>
@@ -10903,11 +10926,11 @@
       <c r="F269" s="1" t="s">
         <v>721</v>
       </c>
-      <c r="I269" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J269" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>270</v>
       </c>
@@ -10923,11 +10946,11 @@
       <c r="F270" s="1" t="s">
         <v>724</v>
       </c>
-      <c r="I270" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J270" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>271</v>
       </c>
@@ -10943,14 +10966,14 @@
       <c r="F271" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="G271" s="1" t="s">
+      <c r="H271" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="I271" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J271" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>272</v>
       </c>
@@ -10966,11 +10989,11 @@
       <c r="F272" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="I272" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J272" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>273</v>
       </c>
@@ -10986,14 +11009,14 @@
       <c r="F273" s="1" t="s">
         <v>734</v>
       </c>
-      <c r="G273" s="1" t="s">
+      <c r="H273" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="K273" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L273" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>274</v>
       </c>
@@ -11009,14 +11032,14 @@
       <c r="F274" s="1" t="s">
         <v>738</v>
       </c>
-      <c r="G274" s="1" t="s">
+      <c r="H274" s="1" t="s">
         <v>739</v>
       </c>
-      <c r="K274" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L274" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>275</v>
       </c>
@@ -11032,17 +11055,17 @@
       <c r="F275" s="1" t="s">
         <v>742</v>
       </c>
-      <c r="G275" s="1" t="s">
+      <c r="H275" s="1" t="s">
         <v>735</v>
       </c>
-      <c r="H275" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K275" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I275" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>276</v>
       </c>
@@ -11058,11 +11081,11 @@
       <c r="F276" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="J276" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K276" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>277</v>
       </c>
@@ -11078,11 +11101,11 @@
       <c r="F277" s="1" t="s">
         <v>748</v>
       </c>
-      <c r="G277" s="1" t="s">
+      <c r="H277" s="1" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>278</v>
       </c>
@@ -11098,11 +11121,11 @@
       <c r="F278" s="1" t="s">
         <v>752</v>
       </c>
-      <c r="K278" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L278" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>279</v>
       </c>
@@ -11118,11 +11141,11 @@
       <c r="F279" s="1" t="s">
         <v>755</v>
       </c>
-      <c r="G279" s="1" t="s">
+      <c r="H279" s="1" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>280</v>
       </c>
@@ -11138,11 +11161,11 @@
       <c r="F280" s="1" t="s">
         <v>759</v>
       </c>
-      <c r="G280" s="1" t="s">
+      <c r="H280" s="1" t="s">
         <v>760</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>281</v>
       </c>
@@ -11158,11 +11181,11 @@
       <c r="F281" s="1" t="s">
         <v>763</v>
       </c>
-      <c r="J281" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K281" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>282</v>
       </c>
@@ -11178,11 +11201,11 @@
       <c r="F282" s="1" t="s">
         <v>766</v>
       </c>
-      <c r="H282" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I282" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>283</v>
       </c>
@@ -11198,11 +11221,11 @@
       <c r="F283" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="K283" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L283" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>284</v>
       </c>
@@ -11218,14 +11241,14 @@
       <c r="F284" s="1" t="s">
         <v>772</v>
       </c>
-      <c r="I284" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K284" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J284" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>285</v>
       </c>
@@ -11241,11 +11264,11 @@
       <c r="F285" s="1" t="s">
         <v>775</v>
       </c>
-      <c r="I285" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J285" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>286</v>
       </c>
@@ -11261,11 +11284,11 @@
       <c r="F286" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="G286" s="1" t="s">
+      <c r="H286" s="1" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>287</v>
       </c>
@@ -11282,7 +11305,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>288</v>
       </c>
@@ -11298,14 +11321,14 @@
       <c r="F288" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="H288" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K288" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I288" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>289</v>
       </c>
@@ -11321,14 +11344,14 @@
       <c r="F289" s="1" t="s">
         <v>788</v>
       </c>
-      <c r="G289" s="1" t="s">
+      <c r="H289" s="1" t="s">
         <v>789</v>
       </c>
-      <c r="J289" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K289" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>290</v>
       </c>
@@ -11344,11 +11367,11 @@
       <c r="F290" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="K290" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L290" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>291</v>
       </c>
@@ -11364,11 +11387,11 @@
       <c r="F291" s="1" t="s">
         <v>795</v>
       </c>
-      <c r="K291" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L291" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>292</v>
       </c>
@@ -11384,14 +11407,14 @@
       <c r="F292" s="1" t="s">
         <v>798</v>
       </c>
-      <c r="G292" s="1" t="s">
+      <c r="H292" s="1" t="s">
         <v>799</v>
       </c>
-      <c r="K292" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L292" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>293</v>
       </c>
@@ -11407,11 +11430,11 @@
       <c r="F293" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="K293" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L293" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>294</v>
       </c>
@@ -11427,11 +11450,11 @@
       <c r="F294" s="1" t="s">
         <v>805</v>
       </c>
-      <c r="K294" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L294" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>295</v>
       </c>
@@ -11447,17 +11470,17 @@
       <c r="F295" s="1" t="s">
         <v>808</v>
       </c>
-      <c r="G295" s="1" t="s">
+      <c r="H295" s="1" t="s">
         <v>809</v>
       </c>
-      <c r="H295" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K295" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I295" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>296</v>
       </c>
@@ -11473,14 +11496,14 @@
       <c r="F296" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="J296" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K296" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L296" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>297</v>
       </c>
@@ -11496,11 +11519,11 @@
       <c r="F297" s="1" t="s">
         <v>815</v>
       </c>
-      <c r="J297" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="298" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K297" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>298</v>
       </c>
@@ -11517,7 +11540,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>299</v>
       </c>
@@ -11533,11 +11556,11 @@
       <c r="F299" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="G299" s="1" t="s">
+      <c r="H299" s="1" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>300</v>
       </c>
@@ -11554,7 +11577,7 @@
         <v>824</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>301</v>
       </c>
@@ -11571,7 +11594,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>302</v>
       </c>
@@ -11588,7 +11611,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>303</v>
       </c>
@@ -11604,11 +11627,11 @@
       <c r="F303" s="1" t="s">
         <v>833</v>
       </c>
-      <c r="G303" s="1" t="s">
+      <c r="H303" s="1" t="s">
         <v>834</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>304</v>
       </c>
@@ -11625,7 +11648,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>305</v>
       </c>
@@ -11641,11 +11664,11 @@
       <c r="F305" s="1" t="s">
         <v>840</v>
       </c>
-      <c r="J305" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K305" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>306</v>
       </c>
@@ -11662,7 +11685,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>307</v>
       </c>
@@ -11678,11 +11701,11 @@
       <c r="F307" s="1" t="s">
         <v>846</v>
       </c>
-      <c r="G307" s="1" t="s">
+      <c r="H307" s="1" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>308</v>
       </c>
@@ -11698,11 +11721,11 @@
       <c r="F308" s="1" t="s">
         <v>850</v>
       </c>
-      <c r="G308" s="1" t="s">
+      <c r="H308" s="1" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>309</v>
       </c>
@@ -11718,11 +11741,11 @@
       <c r="F309" s="1" t="s">
         <v>853</v>
       </c>
-      <c r="J309" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K309" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>310</v>
       </c>
@@ -11738,14 +11761,14 @@
       <c r="F310" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="G310" s="1" t="s">
+      <c r="H310" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="I310" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J310" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>311</v>
       </c>
@@ -11761,11 +11784,11 @@
       <c r="F311" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="G311" s="1" t="s">
+      <c r="H311" s="1" t="s">
         <v>860</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>312</v>
       </c>
@@ -11782,7 +11805,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>313</v>
       </c>
@@ -11798,14 +11821,14 @@
       <c r="F313" s="1" t="s">
         <v>865</v>
       </c>
-      <c r="G313" s="1" t="s">
+      <c r="H313" s="1" t="s">
         <v>866</v>
       </c>
-      <c r="H313" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I313" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>314</v>
       </c>
@@ -11821,11 +11844,11 @@
       <c r="F314" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="G314" s="1" t="s">
+      <c r="H314" s="1" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>315</v>
       </c>
@@ -11841,11 +11864,11 @@
       <c r="F315" s="1" t="s">
         <v>873</v>
       </c>
-      <c r="G315" s="1" t="s">
+      <c r="H315" s="1" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>316</v>
       </c>
@@ -11861,14 +11884,14 @@
       <c r="F316" s="1" t="s">
         <v>876</v>
       </c>
-      <c r="G316" s="1" t="s">
+      <c r="H316" s="1" t="s">
         <v>877</v>
       </c>
-      <c r="I316" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J316" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>317</v>
       </c>
@@ -11885,7 +11908,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>318</v>
       </c>
@@ -11901,14 +11924,14 @@
       <c r="F318" s="1" t="s">
         <v>883</v>
       </c>
-      <c r="I318" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K318" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J318" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L318" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>319</v>
       </c>
@@ -11924,20 +11947,20 @@
       <c r="F319" s="1" t="s">
         <v>856</v>
       </c>
-      <c r="G319" s="1" t="s">
+      <c r="H319" s="1" t="s">
         <v>847</v>
       </c>
-      <c r="H319" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I319" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K319" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J319" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L319" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>320</v>
       </c>
@@ -11953,17 +11976,17 @@
       <c r="F320" s="1" t="s">
         <v>888</v>
       </c>
-      <c r="G320" s="1" t="s">
+      <c r="H320" s="1" t="s">
         <v>889</v>
       </c>
-      <c r="I320" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K320" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J320" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L320" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="321" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>321</v>
       </c>
@@ -11980,7 +12003,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>322</v>
       </c>
@@ -11996,11 +12019,11 @@
       <c r="F322" s="1" t="s">
         <v>895</v>
       </c>
-      <c r="J322" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K322" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>323</v>
       </c>
@@ -12017,7 +12040,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>324</v>
       </c>
@@ -12033,14 +12056,14 @@
       <c r="F324" s="1" t="s">
         <v>792</v>
       </c>
-      <c r="H324" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K324" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I324" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L324" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>325</v>
       </c>
@@ -12056,14 +12079,14 @@
       <c r="F325" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="I325" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J325" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K325" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>326</v>
       </c>
@@ -12080,7 +12103,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>327</v>
       </c>
@@ -12096,11 +12119,11 @@
       <c r="F327" s="1" t="s">
         <v>909</v>
       </c>
-      <c r="G327" s="1" t="s">
+      <c r="H327" s="1" t="s">
         <v>910</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>328</v>
       </c>
@@ -12117,7 +12140,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>329</v>
       </c>
@@ -12133,14 +12156,14 @@
       <c r="F329" s="1" t="s">
         <v>916</v>
       </c>
-      <c r="H329" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K329" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I329" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L329" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>330</v>
       </c>
@@ -12156,17 +12179,17 @@
       <c r="F330" s="1" t="s">
         <v>919</v>
       </c>
-      <c r="G330" s="1" t="s">
+      <c r="H330" s="1" t="s">
         <v>920</v>
       </c>
-      <c r="H330" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K330" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I330" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L330" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>331</v>
       </c>
@@ -12182,14 +12205,14 @@
       <c r="F331" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="H331" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K331" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I331" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L331" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>332</v>
       </c>
@@ -12205,14 +12228,14 @@
       <c r="F332" s="1" t="s">
         <v>926</v>
       </c>
-      <c r="H332" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K332" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I332" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L332" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>333</v>
       </c>
@@ -12228,14 +12251,14 @@
       <c r="F333" s="1" t="s">
         <v>929</v>
       </c>
-      <c r="H333" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K333" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I333" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L333" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>334</v>
       </c>
@@ -12252,7 +12275,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>335</v>
       </c>
@@ -12268,14 +12291,14 @@
       <c r="F335" s="1" t="s">
         <v>935</v>
       </c>
-      <c r="G335" s="1" t="s">
+      <c r="H335" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="H335" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I335" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>336</v>
       </c>
@@ -12291,11 +12314,11 @@
       <c r="F336" s="1" t="s">
         <v>938</v>
       </c>
-      <c r="K336" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L336" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>337</v>
       </c>
@@ -12311,11 +12334,11 @@
       <c r="F337" s="1" t="s">
         <v>941</v>
       </c>
-      <c r="K337" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L337" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>338</v>
       </c>
@@ -12331,11 +12354,11 @@
       <c r="F338" s="1" t="s">
         <v>944</v>
       </c>
-      <c r="K338" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L338" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>339</v>
       </c>
@@ -12351,11 +12374,11 @@
       <c r="F339" s="1" t="s">
         <v>947</v>
       </c>
-      <c r="G339" s="1" t="s">
+      <c r="H339" s="1" t="s">
         <v>948</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>340</v>
       </c>
@@ -12371,14 +12394,14 @@
       <c r="F340" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="H340" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K340" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I340" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L340" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>341</v>
       </c>
@@ -12394,11 +12417,11 @@
       <c r="F341" s="1" t="s">
         <v>954</v>
       </c>
-      <c r="I341" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J341" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>342</v>
       </c>
@@ -12414,14 +12437,14 @@
       <c r="F342" s="1" t="s">
         <v>957</v>
       </c>
-      <c r="G342" s="1" t="s">
+      <c r="H342" s="1" t="s">
         <v>958</v>
       </c>
-      <c r="I342" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J342" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>343</v>
       </c>
@@ -12438,7 +12461,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>344</v>
       </c>
@@ -12454,11 +12477,11 @@
       <c r="F344" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="G344" s="1" t="s">
+      <c r="H344" s="1" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>345</v>
       </c>
@@ -12474,11 +12497,11 @@
       <c r="F345" s="1" t="s">
         <v>966</v>
       </c>
-      <c r="G345" s="1" t="s">
+      <c r="H345" s="1" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>346</v>
       </c>
@@ -12495,7 +12518,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>347</v>
       </c>
@@ -12511,14 +12534,14 @@
       <c r="F347" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="H347" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K347" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I347" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L347" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>348</v>
       </c>
@@ -12534,14 +12557,15 @@
       <c r="F348" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="G348" s="1" t="s">
+      <c r="G348" s="2"/>
+      <c r="H348" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="J348" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K348" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>349</v>
       </c>
@@ -12557,20 +12581,21 @@
       <c r="F349" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="G349" s="1" t="s">
+      <c r="G349" s="7"/>
+      <c r="H349" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="H349" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J349" s="1" t="s">
+      <c r="I349" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K349" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L349" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>350</v>
       </c>
@@ -12586,11 +12611,12 @@
       <c r="F350" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="G350" s="1" t="s">
+      <c r="G350" s="2"/>
+      <c r="H350" s="1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>351</v>
       </c>
@@ -12606,14 +12632,14 @@
       <c r="F351" s="1" t="s">
         <v>986</v>
       </c>
-      <c r="G351" s="1" t="s">
+      <c r="H351" s="1" t="s">
         <v>987</v>
       </c>
-      <c r="H351" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I351" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>352</v>
       </c>
@@ -12630,7 +12656,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>353</v>
       </c>
@@ -12646,20 +12672,20 @@
       <c r="F353" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="G353" s="1" t="s">
+      <c r="H353" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="H353" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="I353" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K353" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J353" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L353" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>354</v>
       </c>
@@ -12675,14 +12701,14 @@
       <c r="F354" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="H354" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K354" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I354" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L354" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>355</v>
       </c>
@@ -12698,17 +12724,17 @@
       <c r="F355" s="1" t="s">
         <v>999</v>
       </c>
-      <c r="G355" s="1" t="s">
+      <c r="H355" s="1" t="s">
         <v>1000</v>
       </c>
-      <c r="H355" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K355" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I355" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L355" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>356</v>
       </c>
@@ -12724,17 +12750,17 @@
       <c r="F356" s="1" t="s">
         <v>1003</v>
       </c>
-      <c r="G356" s="1" t="s">
+      <c r="H356" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="H356" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J356" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I356" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K356" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>357</v>
       </c>
@@ -12750,14 +12776,14 @@
       <c r="F357" s="1" t="s">
         <v>1006</v>
       </c>
-      <c r="G357" s="1" t="s">
+      <c r="H357" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="H357" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I357" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>358</v>
       </c>
@@ -12773,16 +12799,16 @@
       <c r="F358" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="H358" s="8"/>
-      <c r="I358" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J358" s="8"/>
-      <c r="K358" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I358" s="8"/>
+      <c r="J358" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K358" s="8"/>
+      <c r="L358" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>359</v>
       </c>
@@ -12795,14 +12821,14 @@
       <c r="D359" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H359" s="8"/>
-      <c r="I359" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J359" s="8"/>
+      <c r="I359" s="8"/>
+      <c r="J359" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K359" s="8"/>
-    </row>
-    <row r="360" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L359" s="8"/>
+    </row>
+    <row r="360" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>360</v>
       </c>
@@ -12818,14 +12844,14 @@
       <c r="F360" s="1" t="s">
         <v>1016</v>
       </c>
-      <c r="H360" s="8"/>
       <c r="I360" s="8"/>
       <c r="J360" s="8"/>
-      <c r="K360" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K360" s="8"/>
+      <c r="L360" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>361</v>
       </c>
@@ -12841,12 +12867,12 @@
       <c r="F361" s="1" t="s">
         <v>1019</v>
       </c>
-      <c r="H361" s="8"/>
       <c r="I361" s="8"/>
       <c r="J361" s="8"/>
       <c r="K361" s="8"/>
-    </row>
-    <row r="362" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L361" s="8"/>
+    </row>
+    <row r="362" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>362</v>
       </c>
@@ -12862,12 +12888,12 @@
       <c r="F362" s="1" t="s">
         <v>1022</v>
       </c>
-      <c r="H362" s="8"/>
       <c r="I362" s="8"/>
       <c r="J362" s="8"/>
       <c r="K362" s="8"/>
-    </row>
-    <row r="363" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L362" s="8"/>
+    </row>
+    <row r="363" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>363</v>
       </c>
@@ -12880,14 +12906,14 @@
       <c r="D363" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H363" s="8"/>
       <c r="I363" s="8"/>
       <c r="J363" s="8"/>
-      <c r="K363" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K363" s="8"/>
+      <c r="L363" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>364</v>
       </c>
@@ -12900,14 +12926,14 @@
       <c r="D364" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H364" s="8"/>
       <c r="I364" s="8"/>
       <c r="J364" s="8"/>
-      <c r="K364" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K364" s="8"/>
+      <c r="L364" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>365</v>
       </c>
@@ -12920,16 +12946,16 @@
       <c r="D365" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H365" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I365" s="8"/>
+      <c r="I365" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J365" s="8"/>
-      <c r="K365" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="366" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K365" s="8"/>
+      <c r="L365" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>366</v>
       </c>
@@ -12942,14 +12968,14 @@
       <c r="D366" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H366" s="8"/>
       <c r="I366" s="8"/>
       <c r="J366" s="8"/>
-      <c r="K366" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="367" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K366" s="8"/>
+      <c r="L366" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>367</v>
       </c>
@@ -12965,12 +12991,12 @@
       <c r="F367" s="1" t="s">
         <v>1033</v>
       </c>
-      <c r="H367" s="8"/>
       <c r="I367" s="8"/>
       <c r="J367" s="8"/>
       <c r="K367" s="8"/>
-    </row>
-    <row r="368" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L367" s="8"/>
+    </row>
+    <row r="368" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>368</v>
       </c>
@@ -12983,12 +13009,12 @@
       <c r="D368" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H368" s="8"/>
       <c r="I368" s="8"/>
       <c r="J368" s="8"/>
       <c r="K368" s="8"/>
-    </row>
-    <row r="369" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L368" s="8"/>
+    </row>
+    <row r="369" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>369</v>
       </c>
@@ -13004,14 +13030,14 @@
       <c r="F369" s="1" t="s">
         <v>1038</v>
       </c>
-      <c r="H369" s="8"/>
       <c r="I369" s="8"/>
       <c r="J369" s="8"/>
-      <c r="K369" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="370" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K369" s="8"/>
+      <c r="L369" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>370</v>
       </c>
@@ -13024,14 +13050,14 @@
       <c r="D370" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H370" s="8"/>
       <c r="I370" s="8"/>
       <c r="J370" s="8"/>
-      <c r="K370" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="371" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K370" s="8"/>
+      <c r="L370" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>371</v>
       </c>
@@ -13044,12 +13070,12 @@
       <c r="D371" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H371" s="8"/>
       <c r="I371" s="8"/>
       <c r="J371" s="8"/>
       <c r="K371" s="8"/>
-    </row>
-    <row r="372" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L371" s="8"/>
+    </row>
+    <row r="372" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>372</v>
       </c>
@@ -13062,12 +13088,12 @@
       <c r="D372" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H372" s="8"/>
       <c r="I372" s="8"/>
       <c r="J372" s="8"/>
       <c r="K372" s="8"/>
-    </row>
-    <row r="373" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L372" s="8"/>
+    </row>
+    <row r="373" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>373</v>
       </c>
@@ -13080,12 +13106,12 @@
       <c r="D373" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H373" s="8"/>
       <c r="I373" s="8"/>
       <c r="J373" s="8"/>
       <c r="K373" s="8"/>
-    </row>
-    <row r="374" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L373" s="8"/>
+    </row>
+    <row r="374" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>374</v>
       </c>
@@ -13101,12 +13127,12 @@
       <c r="F374" s="1" t="s">
         <v>1049</v>
       </c>
-      <c r="H374" s="8"/>
       <c r="I374" s="8"/>
       <c r="J374" s="8"/>
       <c r="K374" s="8"/>
-    </row>
-    <row r="375" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L374" s="8"/>
+    </row>
+    <row r="375" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>375</v>
       </c>
@@ -13119,14 +13145,14 @@
       <c r="D375" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H375" s="8"/>
       <c r="I375" s="8"/>
       <c r="J375" s="8"/>
-      <c r="K375" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="376" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K375" s="8"/>
+      <c r="L375" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>376</v>
       </c>
@@ -13139,12 +13165,12 @@
       <c r="D376" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H376" s="8"/>
       <c r="I376" s="8"/>
       <c r="J376" s="8"/>
       <c r="K376" s="8"/>
-    </row>
-    <row r="377" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L376" s="8"/>
+    </row>
+    <row r="377" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>377</v>
       </c>
@@ -13157,14 +13183,14 @@
       <c r="D377" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H377" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I377" s="8"/>
+      <c r="I377" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J377" s="8"/>
       <c r="K377" s="8"/>
-    </row>
-    <row r="378" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L377" s="8"/>
+    </row>
+    <row r="378" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>378</v>
       </c>
@@ -13177,14 +13203,14 @@
       <c r="D378" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H378" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I378" s="8"/>
+      <c r="I378" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J378" s="8"/>
       <c r="K378" s="8"/>
-    </row>
-    <row r="379" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L378" s="8"/>
+    </row>
+    <row r="379" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>379</v>
       </c>
@@ -13197,14 +13223,14 @@
       <c r="D379" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H379" s="8"/>
-      <c r="I379" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J379" s="8"/>
+      <c r="I379" s="8"/>
+      <c r="J379" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K379" s="8"/>
-    </row>
-    <row r="380" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L379" s="8"/>
+    </row>
+    <row r="380" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>380</v>
       </c>
@@ -13217,14 +13243,14 @@
       <c r="D380" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H380" s="8"/>
-      <c r="I380" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J380" s="8"/>
+      <c r="I380" s="8"/>
+      <c r="J380" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K380" s="8"/>
-    </row>
-    <row r="381" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L380" s="8"/>
+    </row>
+    <row r="381" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>381</v>
       </c>
@@ -13237,14 +13263,14 @@
       <c r="D381" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H381" s="8"/>
-      <c r="I381" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J381" s="8"/>
+      <c r="I381" s="8"/>
+      <c r="J381" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K381" s="8"/>
-    </row>
-    <row r="382" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L381" s="8"/>
+    </row>
+    <row r="382" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>382</v>
       </c>
@@ -13260,14 +13286,14 @@
       <c r="F382" s="1" t="s">
         <v>1066</v>
       </c>
-      <c r="H382" s="8"/>
-      <c r="I382" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J382" s="8"/>
+      <c r="I382" s="8"/>
+      <c r="J382" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K382" s="8"/>
-    </row>
-    <row r="383" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L382" s="8"/>
+    </row>
+    <row r="383" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>383</v>
       </c>
@@ -13280,14 +13306,14 @@
       <c r="D383" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H383" s="8"/>
-      <c r="I383" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J383" s="8"/>
+      <c r="I383" s="8"/>
+      <c r="J383" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K383" s="8"/>
-    </row>
-    <row r="384" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L383" s="8"/>
+    </row>
+    <row r="384" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>384</v>
       </c>
@@ -13300,14 +13326,14 @@
       <c r="D384" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H384" s="8"/>
-      <c r="I384" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J384" s="8"/>
+      <c r="I384" s="8"/>
+      <c r="J384" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K384" s="8"/>
-    </row>
-    <row r="385" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L384" s="8"/>
+    </row>
+    <row r="385" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>385</v>
       </c>
@@ -13320,14 +13346,14 @@
       <c r="D385" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H385" s="8"/>
-      <c r="I385" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J385" s="8"/>
+      <c r="I385" s="8"/>
+      <c r="J385" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K385" s="8"/>
-    </row>
-    <row r="386" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L385" s="8"/>
+    </row>
+    <row r="386" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>386</v>
       </c>
@@ -13340,14 +13366,14 @@
       <c r="D386" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H386" s="8"/>
-      <c r="I386" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J386" s="8"/>
+      <c r="I386" s="8"/>
+      <c r="J386" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K386" s="8"/>
-    </row>
-    <row r="387" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L386" s="8"/>
+    </row>
+    <row r="387" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>387</v>
       </c>
@@ -13360,14 +13386,14 @@
       <c r="D387" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H387" s="8"/>
       <c r="I387" s="8"/>
       <c r="J387" s="8"/>
-      <c r="K387" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K387" s="8"/>
+      <c r="L387" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>388</v>
       </c>
@@ -13380,14 +13406,14 @@
       <c r="D388" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H388" s="8"/>
-      <c r="I388" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J388" s="8"/>
+      <c r="I388" s="8"/>
+      <c r="J388" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K388" s="8"/>
-    </row>
-    <row r="389" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L388" s="8"/>
+    </row>
+    <row r="389" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>389</v>
       </c>
@@ -13400,14 +13426,14 @@
       <c r="D389" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H389" s="8"/>
       <c r="I389" s="8"/>
       <c r="J389" s="8"/>
-      <c r="K389" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K389" s="8"/>
+      <c r="L389" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>390</v>
       </c>
@@ -13420,12 +13446,12 @@
       <c r="D390" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H390" s="8"/>
       <c r="I390" s="8"/>
       <c r="J390" s="8"/>
       <c r="K390" s="8"/>
-    </row>
-    <row r="391" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L390" s="8"/>
+    </row>
+    <row r="391" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>391</v>
       </c>
@@ -13438,12 +13464,12 @@
       <c r="D391" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H391" s="8"/>
       <c r="I391" s="8"/>
       <c r="J391" s="8"/>
       <c r="K391" s="8"/>
-    </row>
-    <row r="392" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L391" s="8"/>
+    </row>
+    <row r="392" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>392</v>
       </c>
@@ -13456,16 +13482,16 @@
       <c r="D392" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H392" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I392" s="8"/>
+      <c r="I392" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J392" s="8"/>
-      <c r="K392" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K392" s="8"/>
+      <c r="L392" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>393</v>
       </c>
@@ -13478,12 +13504,12 @@
       <c r="D393" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H393" s="8"/>
       <c r="I393" s="8"/>
       <c r="J393" s="8"/>
       <c r="K393" s="8"/>
-    </row>
-    <row r="394" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L393" s="8"/>
+    </row>
+    <row r="394" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>394</v>
       </c>
@@ -13496,14 +13522,14 @@
       <c r="D394" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H394" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I394" s="8"/>
+      <c r="I394" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J394" s="8"/>
       <c r="K394" s="8"/>
-    </row>
-    <row r="395" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L394" s="8"/>
+    </row>
+    <row r="395" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>395</v>
       </c>
@@ -13516,14 +13542,14 @@
       <c r="D395" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H395" s="8"/>
-      <c r="I395" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J395" s="8"/>
+      <c r="I395" s="8"/>
+      <c r="J395" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K395" s="8"/>
-    </row>
-    <row r="396" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L395" s="8"/>
+    </row>
+    <row r="396" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>396</v>
       </c>
@@ -13536,12 +13562,12 @@
       <c r="D396" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H396" s="8"/>
       <c r="I396" s="8"/>
       <c r="J396" s="8"/>
       <c r="K396" s="8"/>
-    </row>
-    <row r="397" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L396" s="8"/>
+    </row>
+    <row r="397" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>397</v>
       </c>
@@ -13557,12 +13583,12 @@
       <c r="F397" s="1" t="s">
         <v>1097</v>
       </c>
-      <c r="H397" s="8"/>
       <c r="I397" s="8"/>
       <c r="J397" s="8"/>
       <c r="K397" s="8"/>
-    </row>
-    <row r="398" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L397" s="8"/>
+    </row>
+    <row r="398" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>398</v>
       </c>
@@ -13575,14 +13601,14 @@
       <c r="D398" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H398" s="8"/>
       <c r="I398" s="8"/>
       <c r="J398" s="8"/>
-      <c r="K398" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="399" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K398" s="8"/>
+      <c r="L398" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>399</v>
       </c>
@@ -13595,14 +13621,14 @@
       <c r="D399" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H399" s="8"/>
       <c r="I399" s="8"/>
       <c r="J399" s="8"/>
-      <c r="K399" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="400" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K399" s="8"/>
+      <c r="L399" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>400</v>
       </c>
@@ -13615,14 +13641,14 @@
       <c r="D400" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H400" s="8"/>
-      <c r="I400" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J400" s="8"/>
+      <c r="I400" s="8"/>
+      <c r="J400" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K400" s="8"/>
-    </row>
-    <row r="401" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L400" s="8"/>
+    </row>
+    <row r="401" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>401</v>
       </c>
@@ -13635,12 +13661,12 @@
       <c r="D401" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H401" s="8"/>
       <c r="I401" s="8"/>
       <c r="J401" s="8"/>
       <c r="K401" s="8"/>
-    </row>
-    <row r="402" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L401" s="8"/>
+    </row>
+    <row r="402" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>402</v>
       </c>
@@ -13653,14 +13679,14 @@
       <c r="D402" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H402" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I402" s="8"/>
+      <c r="I402" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J402" s="8"/>
       <c r="K402" s="8"/>
-    </row>
-    <row r="403" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L402" s="8"/>
+    </row>
+    <row r="403" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>403</v>
       </c>
@@ -13673,14 +13699,14 @@
       <c r="D403" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H403" s="8"/>
-      <c r="I403" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J403" s="8"/>
+      <c r="I403" s="8"/>
+      <c r="J403" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K403" s="8"/>
-    </row>
-    <row r="404" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L403" s="8"/>
+    </row>
+    <row r="404" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>404</v>
       </c>
@@ -13693,14 +13719,14 @@
       <c r="D404" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H404" s="8"/>
-      <c r="I404" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J404" s="8"/>
+      <c r="I404" s="8"/>
+      <c r="J404" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K404" s="8"/>
-    </row>
-    <row r="405" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L404" s="8"/>
+    </row>
+    <row r="405" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>405</v>
       </c>
@@ -13713,14 +13739,14 @@
       <c r="D405" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H405" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I405" s="8"/>
+      <c r="I405" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J405" s="8"/>
       <c r="K405" s="8"/>
-    </row>
-    <row r="406" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L405" s="8"/>
+    </row>
+    <row r="406" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>406</v>
       </c>
@@ -13736,12 +13762,12 @@
       <c r="F406" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="H406" s="8"/>
       <c r="I406" s="8"/>
       <c r="J406" s="8"/>
       <c r="K406" s="8"/>
-    </row>
-    <row r="407" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L406" s="8"/>
+    </row>
+    <row r="407" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>407</v>
       </c>
@@ -13754,12 +13780,12 @@
       <c r="D407" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H407" s="8"/>
       <c r="I407" s="8"/>
       <c r="J407" s="8"/>
       <c r="K407" s="8"/>
-    </row>
-    <row r="408" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L407" s="8"/>
+    </row>
+    <row r="408" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>408</v>
       </c>
@@ -13772,12 +13798,12 @@
       <c r="D408" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H408" s="8"/>
       <c r="I408" s="8"/>
       <c r="J408" s="8"/>
       <c r="K408" s="8"/>
-    </row>
-    <row r="409" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L408" s="8"/>
+    </row>
+    <row r="409" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>409</v>
       </c>
@@ -13790,12 +13816,12 @@
       <c r="D409" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H409" s="8"/>
       <c r="I409" s="8"/>
       <c r="J409" s="8"/>
       <c r="K409" s="8"/>
-    </row>
-    <row r="410" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L409" s="8"/>
+    </row>
+    <row r="410" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>410</v>
       </c>
@@ -13811,16 +13837,16 @@
       <c r="F410" s="1" t="s">
         <v>1512</v>
       </c>
-      <c r="H410" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I410" s="8"/>
+      <c r="I410" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J410" s="8"/>
-      <c r="K410" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="411" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K410" s="8"/>
+      <c r="L410" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>411</v>
       </c>
@@ -13833,14 +13859,14 @@
       <c r="D411" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H411" s="8"/>
-      <c r="I411" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J411" s="8"/>
+      <c r="I411" s="8"/>
+      <c r="J411" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K411" s="8"/>
-    </row>
-    <row r="412" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L411" s="8"/>
+    </row>
+    <row r="412" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>412</v>
       </c>
@@ -13853,14 +13879,14 @@
       <c r="D412" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H412" s="8"/>
-      <c r="I412" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J412" s="8"/>
+      <c r="I412" s="8"/>
+      <c r="J412" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K412" s="8"/>
-    </row>
-    <row r="413" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L412" s="8"/>
+    </row>
+    <row r="413" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>413</v>
       </c>
@@ -13873,14 +13899,14 @@
       <c r="D413" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H413" s="8"/>
-      <c r="I413" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J413" s="8"/>
+      <c r="I413" s="8"/>
+      <c r="J413" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K413" s="8"/>
-    </row>
-    <row r="414" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L413" s="8"/>
+    </row>
+    <row r="414" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>414</v>
       </c>
@@ -13893,14 +13919,14 @@
       <c r="D414" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H414" s="8"/>
       <c r="I414" s="8"/>
       <c r="J414" s="8"/>
-      <c r="K414" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="415" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K414" s="8"/>
+      <c r="L414" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>415</v>
       </c>
@@ -13913,14 +13939,14 @@
       <c r="D415" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H415" s="8"/>
       <c r="I415" s="8"/>
       <c r="J415" s="8"/>
-      <c r="K415" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="416" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K415" s="8"/>
+      <c r="L415" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>416</v>
       </c>
@@ -13933,14 +13959,14 @@
       <c r="D416" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H416" s="8"/>
       <c r="I416" s="8"/>
       <c r="J416" s="8"/>
-      <c r="K416" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="417" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K416" s="8"/>
+      <c r="L416" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>417</v>
       </c>
@@ -13956,16 +13982,16 @@
       <c r="F417" s="1" t="s">
         <v>1138</v>
       </c>
-      <c r="H417" s="8"/>
-      <c r="I417" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J417" s="8"/>
-      <c r="K417" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="418" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I417" s="8"/>
+      <c r="J417" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K417" s="8"/>
+      <c r="L417" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>418</v>
       </c>
@@ -13978,16 +14004,16 @@
       <c r="D418" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H418" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I418" s="8"/>
+      <c r="I418" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J418" s="8"/>
-      <c r="K418" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="419" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K418" s="8"/>
+      <c r="L418" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>419</v>
       </c>
@@ -14000,16 +14026,16 @@
       <c r="D419" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H419" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I419" s="8"/>
+      <c r="I419" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J419" s="8"/>
-      <c r="K419" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="420" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K419" s="8"/>
+      <c r="L419" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>420</v>
       </c>
@@ -14022,16 +14048,16 @@
       <c r="D420" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H420" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I420" s="8"/>
+      <c r="I420" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J420" s="8"/>
-      <c r="K420" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="421" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K420" s="8"/>
+      <c r="L420" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>421</v>
       </c>
@@ -14047,12 +14073,12 @@
       <c r="F421" s="1" t="s">
         <v>1147</v>
       </c>
-      <c r="H421" s="8"/>
       <c r="I421" s="8"/>
       <c r="J421" s="8"/>
       <c r="K421" s="8"/>
-    </row>
-    <row r="422" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L421" s="8"/>
+    </row>
+    <row r="422" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>422</v>
       </c>
@@ -14068,12 +14094,12 @@
       <c r="F422" s="1" t="s">
         <v>1150</v>
       </c>
-      <c r="H422" s="8"/>
       <c r="I422" s="8"/>
       <c r="J422" s="8"/>
       <c r="K422" s="8"/>
-    </row>
-    <row r="423" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L422" s="8"/>
+    </row>
+    <row r="423" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>423</v>
       </c>
@@ -14086,12 +14112,12 @@
       <c r="D423" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H423" s="8"/>
       <c r="I423" s="8"/>
       <c r="J423" s="8"/>
       <c r="K423" s="8"/>
-    </row>
-    <row r="424" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L423" s="8"/>
+    </row>
+    <row r="424" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>424</v>
       </c>
@@ -14104,14 +14130,14 @@
       <c r="D424" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H424" s="8"/>
       <c r="I424" s="8"/>
       <c r="J424" s="8"/>
-      <c r="K424" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="425" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K424" s="8"/>
+      <c r="L424" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>425</v>
       </c>
@@ -14124,14 +14150,14 @@
       <c r="D425" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H425" s="8"/>
       <c r="I425" s="8"/>
       <c r="J425" s="8"/>
-      <c r="K425" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="426" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K425" s="8"/>
+      <c r="L425" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>426</v>
       </c>
@@ -14144,14 +14170,14 @@
       <c r="D426" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H426" s="8"/>
       <c r="I426" s="8"/>
       <c r="J426" s="8"/>
-      <c r="K426" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="427" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K426" s="8"/>
+      <c r="L426" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>427</v>
       </c>
@@ -14164,12 +14190,12 @@
       <c r="D427" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H427" s="8"/>
       <c r="I427" s="8"/>
       <c r="J427" s="8"/>
       <c r="K427" s="8"/>
-    </row>
-    <row r="428" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L427" s="8"/>
+    </row>
+    <row r="428" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>428</v>
       </c>
@@ -14182,12 +14208,12 @@
       <c r="D428" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H428" s="8"/>
       <c r="I428" s="8"/>
       <c r="J428" s="8"/>
       <c r="K428" s="8"/>
-    </row>
-    <row r="429" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L428" s="8"/>
+    </row>
+    <row r="429" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>429</v>
       </c>
@@ -14200,14 +14226,14 @@
       <c r="D429" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H429" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I429" s="8"/>
+      <c r="I429" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J429" s="8"/>
       <c r="K429" s="8"/>
-    </row>
-    <row r="430" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L429" s="8"/>
+    </row>
+    <row r="430" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>430</v>
       </c>
@@ -14220,12 +14246,12 @@
       <c r="D430" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H430" s="8"/>
       <c r="I430" s="8"/>
       <c r="J430" s="8"/>
       <c r="K430" s="8"/>
-    </row>
-    <row r="431" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L430" s="8"/>
+    </row>
+    <row r="431" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>431</v>
       </c>
@@ -14238,12 +14264,12 @@
       <c r="D431" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H431" s="8"/>
       <c r="I431" s="8"/>
       <c r="J431" s="8"/>
       <c r="K431" s="8"/>
-    </row>
-    <row r="432" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L431" s="8"/>
+    </row>
+    <row r="432" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>432</v>
       </c>
@@ -14256,14 +14282,14 @@
       <c r="D432" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H432" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I432" s="8"/>
+      <c r="I432" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J432" s="8"/>
       <c r="K432" s="8"/>
-    </row>
-    <row r="433" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L432" s="8"/>
+    </row>
+    <row r="433" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>433</v>
       </c>
@@ -14276,12 +14302,12 @@
       <c r="D433" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H433" s="8"/>
       <c r="I433" s="8"/>
       <c r="J433" s="8"/>
       <c r="K433" s="8"/>
-    </row>
-    <row r="434" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L433" s="8"/>
+    </row>
+    <row r="434" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>434</v>
       </c>
@@ -14294,16 +14320,16 @@
       <c r="D434" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H434" s="8"/>
-      <c r="I434" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J434" s="8"/>
-      <c r="K434" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="435" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I434" s="8"/>
+      <c r="J434" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K434" s="8"/>
+      <c r="L434" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>435</v>
       </c>
@@ -14316,14 +14342,14 @@
       <c r="D435" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H435" s="8"/>
-      <c r="I435" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="J435" s="8"/>
+      <c r="I435" s="8"/>
+      <c r="J435" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="K435" s="8"/>
-    </row>
-    <row r="436" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L435" s="8"/>
+    </row>
+    <row r="436" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>436</v>
       </c>
@@ -14336,14 +14362,14 @@
       <c r="D436" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H436" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I436" s="8"/>
+      <c r="I436" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J436" s="8"/>
       <c r="K436" s="8"/>
-    </row>
-    <row r="437" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L436" s="8"/>
+    </row>
+    <row r="437" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>437</v>
       </c>
@@ -14356,12 +14382,12 @@
       <c r="D437" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H437" s="8"/>
       <c r="I437" s="8"/>
       <c r="J437" s="8"/>
       <c r="K437" s="8"/>
-    </row>
-    <row r="438" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L437" s="8"/>
+    </row>
+    <row r="438" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>438</v>
       </c>
@@ -14374,12 +14400,12 @@
       <c r="D438" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H438" s="8"/>
       <c r="I438" s="8"/>
       <c r="J438" s="8"/>
       <c r="K438" s="8"/>
-    </row>
-    <row r="439" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L438" s="8"/>
+    </row>
+    <row r="439" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>439</v>
       </c>
@@ -14392,14 +14418,14 @@
       <c r="D439" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H439" s="8"/>
       <c r="I439" s="8"/>
       <c r="J439" s="8"/>
-      <c r="K439" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="440" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K439" s="8"/>
+      <c r="L439" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>440</v>
       </c>
@@ -14415,14 +14441,14 @@
       <c r="F440" s="1" t="s">
         <v>1187</v>
       </c>
-      <c r="H440" s="8"/>
       <c r="I440" s="8"/>
       <c r="J440" s="8"/>
-      <c r="K440" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="441" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K440" s="8"/>
+      <c r="L440" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>441</v>
       </c>
@@ -14435,16 +14461,16 @@
       <c r="D441" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H441" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I441" s="8"/>
+      <c r="I441" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J441" s="8"/>
-      <c r="K441" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="442" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K441" s="8"/>
+      <c r="L441" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>442</v>
       </c>
@@ -14457,16 +14483,16 @@
       <c r="D442" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H442" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I442" s="8"/>
+      <c r="I442" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J442" s="8"/>
-      <c r="K442" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="443" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K442" s="8"/>
+      <c r="L442" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>443</v>
       </c>
@@ -14482,16 +14508,16 @@
       <c r="F443" s="1" t="s">
         <v>1194</v>
       </c>
-      <c r="H443" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I443" s="8"/>
+      <c r="I443" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J443" s="8"/>
-      <c r="K443" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="444" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K443" s="8"/>
+      <c r="L443" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>444</v>
       </c>
@@ -14504,16 +14530,16 @@
       <c r="D444" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H444" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I444" s="8"/>
+      <c r="I444" s="8" t="s">
+        <v>20</v>
+      </c>
       <c r="J444" s="8"/>
-      <c r="K444" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="445" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K444" s="8"/>
+      <c r="L444" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>445</v>
       </c>
@@ -14526,12 +14552,12 @@
       <c r="D445" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H445" s="8"/>
       <c r="I445" s="8"/>
       <c r="J445" s="8"/>
       <c r="K445" s="8"/>
-    </row>
-    <row r="446" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L445" s="8"/>
+    </row>
+    <row r="446" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>446</v>
       </c>
@@ -14547,14 +14573,14 @@
       <c r="F446" s="1" t="s">
         <v>1201</v>
       </c>
-      <c r="H446" s="8"/>
       <c r="I446" s="8"/>
       <c r="J446" s="8"/>
-      <c r="K446" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="447" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K446" s="8"/>
+      <c r="L446" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>447</v>
       </c>
@@ -14567,10 +14593,10 @@
       <c r="D447" s="5" t="s">
         <v>1010</v>
       </c>
-      <c r="H447" s="8"/>
       <c r="I447" s="8"/>
       <c r="J447" s="8"/>
       <c r="K447" s="8"/>
+      <c r="L447" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
